--- a/CustomLocalization/Localization/RogueTech/RU/ExperimentalWeapons/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/ExperimentalWeapons/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="581">
   <si>
     <t>Ammo_AmmunitionBox_RAPLBGR_GAUSS.Description.Details</t>
   </si>
@@ -65,14 +65,11 @@
   </si>
   <si>
     <t xml:space="preserve">This Thunderbolt Missile was retooled to fire a specialized NEMP Warhead disabling everything around the impact. NEMP warhead is designed to be detonated above the Earth's surface. The explosion releases a blast of gamma rays, which scrambles electronics. 
-  &lt;b&gt;&lt;color=#00ffff&gt; Ctrl+click on ammunition counter to eject ammo.&lt;/color&gt; &lt;/b&gt;
----
-This Thunderbolt Missile was retooled to fire a specialized NEMP Warhead disabling everything around the impact. NEMP warhead is designed to be detonated above the Earth's surface. The explosion releases a blast of gamma rays, which scrambles electronics. 
  &lt;b&gt;&lt;color=#00ffff&gt; Ctrl+click on ammunition counter to eject ammo.&lt;/color&gt; &lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">This Thunderbolt Missile was retooled to fire a specialized NEMP Warhead disabling everything around the impact. NEMP warhead is designed to be detonated above the Earth's surface. The explosion releases a blast of gamma rays, which scrambles electronics. 
-  &lt;b&gt;&lt;color=#00ffff&gt; Ctrl+click on ammunition counter to eject ammo.&lt;/color&gt; &lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#00ffff&gt; Ctrl+click on ammunition counter to eject ammo.&lt;/color&gt; &lt;/b&gt;</t>
   </si>
   <si>
     <t>Ammo_AmmunitionBox_Thunderbolt_TB20_NEMP.Description.Name</t>
@@ -184,17 +181,13 @@
   </si>
   <si>
     <t xml:space="preserve">Argent Leviathan was commissioned by ComStar in 3060 as an exploratory upgrade to existing King Crabs. Largely driven by the logistical problems plaguing ComStar's thinly stretched armies, the KGC-AL prototype would carry eight extended range medium lasers and two large pulse lasers along with functional claws that would enable it to drag large battlefield salvage or even grasp its prey.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Command Mech&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;
----
-Argent Leviathan was commissioned by ComStar in 3060 as an exploratory upgrade to existing King Crabs. Largely driven by the logistical problems plaguing ComStar's thinly stretched armies, the KGC-AL prototype would carry eight extended range medium lasers and two large pulse lasers along with functional claws that would enable it to drag large battlefield salvage or even grasp its prey.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Command Mech&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Argent Leviathan was commissioned by ComStar in 3060 as an exploratory upgrade to existing King Crabs. Largely driven by the logistical problems plaguing ComStar's thinly stretched armies, the KGC-AL prototype would carry eight extended range medium lasers and two large pulse lasers along with functional claws that would enable it to drag large battlefield salvage or even grasp its prey.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_argent_leviathan_KGC-AL.StockRole</t>
@@ -216,17 +209,13 @@
   </si>
   <si>
     <t xml:space="preserve">Introduced at the turn of the century, the Blood Asp was created by the Smoke Jaguars in anticipation of the Clans' return to the Inner Sphere. This is a Custom configured Blood Asp by the Society to work as a test bed for the Experimental Heavy Silver Bullet Gauss Rifles.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Rugged&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;
----
-Introduced at the turn of the century, the Blood Asp was created by the Smoke Jaguars in anticipation of the Clans' return to the Inner Sphere. This is a Custom configured Blood Asp by the Society to work as a test bed for the Experimental Heavy Silver Bullet Gauss Rifles.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Rugged&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Introduced at the turn of the century, the Blood Asp was created by the Smoke Jaguars in anticipation of the Clans' return to the Inner Sphere. This is a Custom configured Blood Asp by the Society to work as a test bed for the Experimental Heavy Silver Bullet Gauss Rifles.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_blood_asp_BAS-S.StockRole</t>
@@ -248,17 +237,13 @@
   </si>
   <si>
     <t xml:space="preserve">Like An unstoppable Zombie, the mech known as the cauldron born takes the battlefeild striking fear into its opponents. &lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;
----
-Like An unstoppable Zombie, the mech known as the cauldron born takes the battlefeild striking fear into its opponents. &lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Like An unstoppable Zombie, the mech known as the cauldron born takes the battlefeild striking fear into its opponents. &lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_cauldron_born_EBJ-CB.StockRole</t>
@@ -280,17 +265,13 @@
   </si>
   <si>
     <t xml:space="preserve">The Clint was first created in 2607 as a direct result of the Star LeagueArmaments Act, a law meant to provide border areas with the latest in battlefield technology. The next version, CLNT-2-3T, was mass produced starting in 2608. The Clint was primarily designed as a cheap recon unit, with the capabilities of a well-armed, low-end medium weight 'Mech, and in this regard it served well. With a top speed of 97.2 km/h and a jumping capability of one hundred and eighty meters, the Clint can easily keep up with other recon elements and maneuver through mountainous or urban terrain. Its Sloan 220 Lockover T&amp;T System in particular shines as it is simple to use and provides the pilot with excellent battlefield data. Although the 'Mech has limited ammunition reserves for its autocannon, the Sloane 220 ensures that whatever the Clintshoots at, it hits.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Variable Range Targeting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;
----
-The Clint was first created in 2607 as a direct result of the Star LeagueArmaments Act, a law meant to provide border areas with the latest in battlefield technology. The next version, CLNT-2-3T, was mass produced starting in 2608. The Clint was primarily designed as a cheap recon unit, with the capabilities of a well-armed, low-end medium weight 'Mech, and in this regard it served well. With a top speed of 97.2 km/h and a jumping capability of one hundred and eighty meters, the Clint can easily keep up with other recon elements and maneuver through mountainous or urban terrain. Its Sloan 220 Lockover T&amp;T System in particular shines as it is simple to use and provides the pilot with excellent battlefield data. Although the 'Mech has limited ammunition reserves for its autocannon, the Sloane 220 ensures that whatever the Clintshoots at, it hits.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Variable Range Targeting&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The Clint was first created in 2607 as a direct result of the Star LeagueArmaments Act, a law meant to provide border areas with the latest in battlefield technology. The next version, CLNT-2-3T, was mass produced starting in 2608. The Clint was primarily designed as a cheap recon unit, with the capabilities of a well-armed, low-end medium weight 'Mech, and in this regard it served well. With a top speed of 97.2 km/h and a jumping capability of one hundred and eighty meters, the Clint can easily keep up with other recon elements and maneuver through mountainous or urban terrain. Its Sloan 220 Lockover T&amp;T System in particular shines as it is simple to use and provides the pilot with excellent battlefield data. Although the 'Mech has limited ammunition reserves for its autocannon, the Sloane 220 ensures that whatever the Clintshoots at, it hits.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Variable Range Targeting&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Variable Range Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_clint_eastwood.StockRole</t>
@@ -309,17 +290,13 @@
   </si>
   <si>
     <t xml:space="preserve">The Kugelblitz, also known as the Hypernova, Superluminous Supernova, or ''Type 1A Supernova'' is a gigantic Supernova chassis. Nothing really out of the ordinary until one checks the armor plating on it, mounting WarShip class ''Ferro-Carbide Lamellor'', this expensive armor is capable of protecting a mech's internals without issue, but the price to maintain the armor is only something even the richest of Clan Diamond Shark might have an issue.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.38&lt;/color&gt;&lt;/b&gt;
----
-The Kugelblitz, also known as the Hypernova, Superluminous Supernova, or ''Type 1A Supernova'' is a gigantic Supernova chassis. Nothing really out of the ordinary until one checks the armor plating on it, mounting WarShip class ''Ferro-Carbide Lamellor'', this expensive armor is capable of protecting a mech's internals without issue, but the price to maintain the armor is only something even the richest of Clan Diamond Shark might have an issue.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.38&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The Kugelblitz, also known as the Hypernova, Superluminous Supernova, or ''Type 1A Supernova'' is a gigantic Supernova chassis. Nothing really out of the ordinary until one checks the armor plating on it, mounting WarShip class ''Ferro-Carbide Lamellor'', this expensive armor is capable of protecting a mech's internals without issue, but the price to maintain the armor is only something even the richest of Clan Diamond Shark might have an issue.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.38&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.38&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_kugelblitz_SNV-KB.StockRole</t>
@@ -338,17 +315,13 @@
   </si>
   <si>
     <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). For long range, the Lone Wolf variant was armed with shoulder mounted twin LRM-20 launchers with 24 racks, first half being Swarm LRMs, backed up by a Gauss Rifle in left arm, with 16 slug coming from bins in the left torso. For close combat, the Lone Wolf carries three Medium Pulse Lasers in right arm, a stubby LB-X Autocannon/20 with 10 cluster rounds under-slung on right torso.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;
----
-The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). For long range, the Lone Wolf variant was armed with shoulder mounted twin LRM-20 launchers with 24 racks, first half being Swarm LRMs, backed up by a Gauss Rifle in left arm, with 16 slug coming from bins in the left torso. For close combat, the Lone Wolf carries three Medium Pulse Lasers in right arm, a stubby LB-X Autocannon/20 with 10 cluster rounds under-slung on right torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). For long range, the Lone Wolf variant was armed with shoulder mounted twin LRM-20 launchers with 24 racks, first half being Swarm LRMs, backed up by a Gauss Rifle in left arm, with 16 slug coming from bins in the left torso. For close combat, the Lone Wolf carries three Medium Pulse Lasers in right arm, a stubby LB-X Autocannon/20 with 10 cluster rounds under-slung on right torso.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_lone_wolf_DW-LW.StockRole</t>
@@ -370,17 +343,13 @@
   </si>
   <si>
     <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). Different from the normal Lone Wolf, this variant has some weird experimental Rotary weapon system. Designed to ''delete'' infantry units.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;
----
-The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). Different from the normal Lone Wolf, this variant has some weird experimental Rotary weapon system. Designed to ''delete'' infantry units.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). Different from the normal Lone Wolf, this variant has some weird experimental Rotary weapon system. Designed to ''delete'' infantry units.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_lone_wolf_DW-LW-AP.StockRole</t>
@@ -396,17 +365,13 @@
   </si>
   <si>
     <t xml:space="preserve">This Marauder II was introduced by the Clans for a Mercenary who earned a honoured place among the Warriors.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.3&lt;/color&gt;&lt;/b&gt;
----
-This Marauder II was introduced by the Clans for a Mercenary who earned a honoured place among the Warriors.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.3&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">This Marauder II was introduced by the Clans for a Mercenary who earned a honoured place among the Warriors.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.3&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.3&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_marauder_MAD-BH-R.StockRole</t>
@@ -428,17 +393,13 @@
   </si>
   <si>
     <t xml:space="preserve">This Marauder, commonly refered as the MAD-DER, was first seen as a Solaris VII speed boosted refit which boasts of an L.A.M. System incorporated to the very mech's chassis and engine, enabling it to go faster and actually fly in short bursts. Made with that kind of passion for a flying Marauder, the design was quickly stolen and reffited with several disabler weapons. Making it a capable fast heavy support class mech.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.21&lt;/color&gt;&lt;/b&gt;
----
-This Marauder, commonly refered as the MAD-DER, was first seen as a Solaris VII speed boosted refit which boasts of an L.A.M. System incorporated to the very mech's chassis and engine, enabling it to go faster and actually fly in short bursts. Made with that kind of passion for a flying Marauder, the design was quickly stolen and reffited with several disabler weapons. Making it a capable fast heavy support class mech.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.21&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">This Marauder, commonly refered as the MAD-DER, was first seen as a Solaris VII speed boosted refit which boasts of an L.A.M. System incorporated to the very mech's chassis and engine, enabling it to go faster and actually fly in short bursts. Made with that kind of passion for a flying Marauder, the design was quickly stolen and reffited with several disabler weapons. Making it a capable fast heavy support class mech.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.21&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.21&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_marauder_MAD-DER.StockRole</t>
@@ -457,17 +418,13 @@
   </si>
   <si>
     <t xml:space="preserve">In its primary configuration the Summoner has a basic yet effective arsenal. The primary direct fire weapon is an ER PPC backed up by an LB 10-X Autocannon that can fire both standard and cluster ammunition. For fire support and bombardment, the Summoner has an LRM-15 launcher.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Command Mech&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.43&lt;/color&gt;&lt;/b&gt;
----
-In its primary configuration the Summoner has a basic yet effective arsenal. The primary direct fire weapon is an ER PPC backed up by an LB 10-X Autocannon that can fire both standard and cluster ammunition. For fire support and bombardment, the Summoner has an LRM-15 launcher.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Command Mech&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.43&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">In its primary configuration the Summoner has a basic yet effective arsenal. The primary direct fire weapon is an ER PPC backed up by an LB 10-X Autocannon that can fire both standard and cluster ammunition. For fire support and bombardment, the Summoner has an LRM-15 launcher.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.43&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.43&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_master_summoner.StockRole</t>
@@ -486,17 +443,13 @@
   </si>
   <si>
     <t xml:space="preserve">The origin of this mech is unknown, but all the mech's equipment indicate it's made by the Society. Its codename 'Obsidian Skull' is only known if you have seen this mech before and left alive to continue living.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Melee Actuators&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;
----
-The origin of this mech is unknown, but all the mech's equipment indicate it's made by the Society. Its codename 'Obsidian Skull' is only known if you have seen this mech before and left alive to continue living.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Melee Actuators&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The origin of this mech is unknown, but all the mech's equipment indicate it's made by the Society. Its codename 'Obsidian Skull' is only known if you have seen this mech before and left alive to continue living.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Melee Actuators&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Melee Actuators&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_obsidian_skull_AS-IIC-OS.StockRole</t>
@@ -515,17 +468,13 @@
   </si>
   <si>
     <t xml:space="preserve">The most obscene mech to date, this... abomination has double Rotary Gauss Rifles, theorized previously on the Project Omega TRO , with immense fire power at long range.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.42&lt;/color&gt;&lt;/b&gt;
----
-The most obscene mech to date, this... abomination has double Rotary Gauss Rifles, theorized previously on the Project Omega TRO , with immense fire power at long range.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.42&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The most obscene mech to date, this... abomination has double Rotary Gauss Rifles, theorized previously on the Project Omega TRO , with immense fire power at long range.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.42&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.42&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_raczilla_ii_LVT-RACZII.StockRole</t>
@@ -544,17 +493,13 @@
   </si>
   <si>
     <t xml:space="preserve">The Raczilla is an attempt at creating the most powerful and supersized mech imaginable. Some think it was accomplished, but it low ammo reserves, and heat produced aren't convincing. But doesn't make it less scary...
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.42&lt;/color&gt;&lt;/b&gt;
----
-The Raczilla is an attempt at creating the most powerful and supersized mech imaginable. Some think it was accomplished, but it low ammo reserves, and heat produced aren't convincing. But doesn't make it less scary...
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.42&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The Raczilla is an attempt at creating the most powerful and supersized mech imaginable. Some think it was accomplished, but it low ammo reserves, and heat produced aren't convincing. But doesn't make it less scary...
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.42&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.42&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_raczilla_LVT-RACZ.StockRole</t>
@@ -573,17 +518,13 @@
   </si>
   <si>
     <t xml:space="preserve">The maximum expresion of death at a Distance. Has an improved downscaled Railgun affixed on it Center Torso.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.34&lt;/color&gt;&lt;/b&gt;
----
-The maximum expresion of death at a Distance. Has an improved downscaled Railgun affixed on it Center Torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.34&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The maximum expresion of death at a Distance. Has an improved downscaled Railgun affixed on it Center Torso.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.34&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.34&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_stone_rhino_STRN-R.StockRole</t>
@@ -1012,9 +953,7 @@
     <t>Gear_Actuator_Damios.Description.Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Damios Arm Mod
----
-Damios Arm Mod </t>
+    <t xml:space="preserve">Damios Arm Mod </t>
   </si>
   <si>
     <t>Damios Arm Mod</t>
@@ -1218,9 +1157,7 @@
     <t>Gear_FCS_Lonewolf.Description.Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Scattershot FCS
----
-Scattershot FCS </t>
+    <t xml:space="preserve">Scattershot FCS </t>
   </si>
   <si>
     <t>Scattershot FCS</t>
@@ -1361,9 +1298,7 @@
     <t>Gear_JumpJet_Directional_MAD-DER.Description.UIName</t>
   </si>
   <si>
-    <t xml:space="preserve">Directional Thruster (MAD-DER)
----
- Directional Thruster (MAD-DER)</t>
+    <t xml:space="preserve"> Directional Thruster (MAD-DER)</t>
   </si>
   <si>
     <t>Gear_JumpJet_Directional_MAD-DER.StatusEffect-Attack_DamageDFA-JJ.statusEffects0.Details</t>
@@ -1489,9 +1424,7 @@
     <t>Gear_TargetingTrackingSystem_Sniper.Description.Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciross TTS
----
-Ciross TTS  </t>
+    <t xml:space="preserve">Ciross TTS  </t>
   </si>
   <si>
     <t>Ciross TTS</t>
@@ -1597,34 +1530,26 @@
   </si>
   <si>
     <t xml:space="preserve">Introduced at the turn of the century, the Blood Asp was created by the Smoke Jaguars in anticipation of the Clans' return to the Inner Sphere. A Custom configured Blood Asp by the Society to work as a test bed for the Experimental Heavy Silver Bullet Gauss Rifles
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Rugged&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;
----
-Introduced at the turn of the century, the Blood Asp was created by the Smoke Jaguars in anticipation of the Clans' return to the Inner Sphere. A Custom configured Blood Asp by the Society to work as a test bed for the Experimental Heavy Silver Bullet Gauss Rifles
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Rugged&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Introduced at the turn of the century, the Blood Asp was created by the Smoke Jaguars in anticipation of the Clans' return to the Inner Sphere. A Custom configured Blood Asp by the Society to work as a test bed for the Experimental Heavy Silver Bullet Gauss Rifles
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_cauldron_born_EBJ-CB.Description.Details</t>
   </si>
   <si>
     <t xml:space="preserve">Like An unstoppable Zombie, the mech known as the cauldron born takes the battlefield striking fear into its opponents.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;
----
-Like An unstoppable Zombie, the mech known as the cauldron born takes the battlefield striking fear into its opponents.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Like An unstoppable Zombie, the mech known as the cauldron born takes the battlefield striking fear into its opponents.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_clint_eastwood.Description.Details</t>
@@ -1634,51 +1559,39 @@
   </si>
   <si>
     <t xml:space="preserve">While feared by the Inner Sphere, the Supernova design was born out of necessity in an attempt to address ammunition shortages by changing the original King Crab design to an all-energy loadout. The Boiler is a customized Supernova variant that seeks to re-engineer the Supernova back to the original King Crab loadout using Clan technology, essentially making the Boiler a “King Crab IIC”. It mounts an Ultra AC/20 in each arm supported by a Large Pulse Laser in the right torso and an LRM-15 rack in the left. As it was built upon the frame of the standard Supernova, it retains the jump jets but mounts only seventeen double heat sinks. Like its progenitor, the Boiler lacks field endurance, carrying only two tons of Ultra Autocannon rounds and one ton of LRM reloads.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.38&lt;/color&gt;&lt;/b&gt;
----
-While feared by the Inner Sphere, the Supernova design was born out of necessity in an attempt to address ammunition shortages by changing the original King Crab design to an all-energy loadout. The Boiler is a customized Supernova variant that seeks to re-engineer the Supernova back to the original King Crab loadout using Clan technology, essentially making the Boiler a “King Crab IIC”. It mounts an Ultra AC/20 in each arm supported by a Large Pulse Laser in the right torso and an LRM-15 rack in the left. As it was built upon the frame of the standard Supernova, it retains the jump jets but mounts only seventeen double heat sinks. Like its progenitor, the Boiler lacks field endurance, carrying only two tons of Ultra Autocannon rounds and one ton of LRM reloads.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.38&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">While feared by the Inner Sphere, the Supernova design was born out of necessity in an attempt to address ammunition shortages by changing the original King Crab design to an all-energy loadout. The Boiler is a customized Supernova variant that seeks to re-engineer the Supernova back to the original King Crab loadout using Clan technology, essentially making the Boiler a “King Crab IIC”. It mounts an Ultra AC/20 in each arm supported by a Large Pulse Laser in the right torso and an LRM-15 rack in the left. As it was built upon the frame of the standard Supernova, it retains the jump jets but mounts only seventeen double heat sinks. Like its progenitor, the Boiler lacks field endurance, carrying only two tons of Ultra Autocannon rounds and one ton of LRM reloads.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.38&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.38&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_lone_wolf_DW-LW.Description.Details</t>
   </si>
   <si>
     <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). For long range, the Lone Wolf variant was armed with shoulder mounted twin LRM-20 launchers with 24 racks, first half being Swarm LRMs, backed up by a Gauss Rifle in left arm, with 16 slug coming from bins in the left torso. For close combat, the Lone Wolf carries three Medium Pulse Lasers in right arm, a stubby LB-X Autocannon/20 with 10 cluster rounds under-slung on right torso. &lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;
----
-The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). For long range, the Lone Wolf variant was armed with shoulder mounted twin LRM-20 launchers with 24 racks, first half being Swarm LRMs, backed up by a Gauss Rifle in left arm, with 16 slug coming from bins in the left torso. For close combat, the Lone Wolf carries three Medium Pulse Lasers in right arm, a stubby LB-X Autocannon/20 with 10 cluster rounds under-slung on right torso. &lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). For long range, the Lone Wolf variant was armed with shoulder mounted twin LRM-20 launchers with 24 racks, first half being Swarm LRMs, backed up by a Gauss Rifle in left arm, with 16 slug coming from bins in the left torso. For close combat, the Lone Wolf carries three Medium Pulse Lasers in right arm, a stubby LB-X Autocannon/20 with 10 cluster rounds under-slung on right torso. &lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_lone_wolf_DW-LW-AP.Description.Details</t>
   </si>
   <si>
     <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). Different from the normal Lone Wolf, this variant has some weird experimental Rotary weapon system. Designed to ''delete'' infantry units. &lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;
----
-The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). Different from the normal Lone Wolf, this variant has some weird experimental Rotary weapon system. Designed to ''delete'' infantry units. &lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). Different from the normal Lone Wolf, this variant has some weird experimental Rotary weapon system. Designed to ''delete'' infantry units. &lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_marauder_MAD-BH-R.Description.Details</t>
@@ -1703,34 +1616,26 @@
   </si>
   <si>
     <t xml:space="preserve">The maximum expression of death at a Distance. Has an improved downscaled Railgun affixed on it Center Torso.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.34&lt;/color&gt;&lt;/b&gt;
----
-The maximum expression of death at a Distance. Has an improved downscaled Railgun affixed on it Center Torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.34&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The maximum expression of death at a Distance. Has an improved downscaled Railgun affixed on it Center Torso.
-  &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.34&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.34&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>Weapon_Autocannon_RAC10_CLAN.Description.Details</t>
   </si>
   <si>
     <t xml:space="preserve">Clan scientists managed to stabilize experimental RISC RAC10, while reducing it size, at the cost of an extra ton of weight. 
-  &lt;b&gt;&lt;color=#ffcc00&gt;Uses RAC10 Ammo.&lt;/color&gt;&lt;/b&gt; 
-  &lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt;
----
-Clan scientists managed to stabilize experimental RISC RAC10, while reducing it size, at the cost of an extra ton of weight. 
  &lt;b&gt;&lt;color=#ffcc00&gt;Uses RAC10 Ammo.&lt;/color&gt;&lt;/b&gt; 
  &lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Clan scientists managed to stabilize experimental RISC RAC10, while reducing it size, at the cost of an extra ton of weight. 
-  &lt;b&gt;&lt;color=#ffcc00&gt;Uses RAC10 Ammo.&lt;/color&gt;&lt;/b&gt; 
-  &lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Uses RAC10 Ammo.&lt;/color&gt;&lt;/b&gt; 
+&lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt;</t>
   </si>
   <si>
     <t>Weapon_Autocannon_RAC10_CLAN.Description.Name</t>
@@ -1749,17 +1654,13 @@
   </si>
   <si>
     <t xml:space="preserve">Clan scientists managed to stabilize experimental RISC RAC20, while reducing it size, at the cost of an extra ton of weight. 
-  &lt;b&gt;&lt;color=#ffcc00&gt;Uses RAC20 Ammo.&lt;/color&gt;&lt;/b&gt; 
-  &lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt;
----
-Clan scientists managed to stabilize experimental RISC RAC20, while reducing it size, at the cost of an extra ton of weight. 
  &lt;b&gt;&lt;color=#ffcc00&gt;Uses RAC20 Ammo.&lt;/color&gt;&lt;/b&gt; 
  &lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Clan scientists managed to stabilize experimental RISC RAC20, while reducing it size, at the cost of an extra ton of weight. 
-  &lt;b&gt;&lt;color=#ffcc00&gt;Uses RAC20 Ammo.&lt;/color&gt;&lt;/b&gt; 
-  &lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Uses RAC20 Ammo.&lt;/color&gt;&lt;/b&gt; 
+&lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt;</t>
   </si>
   <si>
     <t>Weapon_Autocannon_RAC20_CLAN.Description.Name</t>
@@ -1778,17 +1679,13 @@
   </si>
   <si>
     <t xml:space="preserve">This massive Rotary Autocannon has reduced tonnage and space, a devastating weapon specifically modified to be able to be mounted on the ''Little Friend'' by a group of clanner Urbanmech worshipers, the downside is not being able to use it on any other mechs due to the extreme integration with mech's systems. Can fire in multiple modes, with higher amount of shots increasing jamming chance. 
- &lt;b&gt;&lt;color=#ffcc00&gt;Uses RAC20 Ammo.&lt;/color&gt;&lt;/b&gt; 
-  &lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt;
----
-This massive Rotary Autocannon has reduced tonnage and space, a devastating weapon specifically modified to be able to be mounted on the ''Little Friend'' by a group of clanner Urbanmech worshipers, the downside is not being able to use it on any other mechs due to the extreme integration with mech's systems. Can fire in multiple modes, with higher amount of shots increasing jamming chance. 
 &lt;b&gt;&lt;color=#ffcc00&gt;Uses RAC20 Ammo.&lt;/color&gt;&lt;/b&gt; 
  &lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">This massive Rotary Autocannon has reduced tonnage and space, a devastating weapon specifically modified to be able to be mounted on the ''Little Friend'' by a group of clanner Urbanmech worshipers, the downside is not being able to use it on any other mechs due to the extreme integration with mech's systems. Can fire in multiple modes, with higher amount of shots increasing jamming chance. 
-  &lt;b&gt;&lt;color=#ffcc00&gt;Uses RAC20 Ammo.&lt;/color&gt;&lt;/b&gt; 
-  &lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Uses RAC20 Ammo.&lt;/color&gt;&lt;/b&gt; 
+&lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt;</t>
   </si>
   <si>
     <t>Weapon_Autocannon_RAC20_CLAN_LF.Description.Name</t>
@@ -1807,19 +1704,10 @@
   </si>
   <si>
     <t xml:space="preserve">The Railgun is a massive weapon adapted from WarShips to be used on BattleMechs. Clan technology has allowed such a massive weapon to fit a relative small space. The powerful weapon decimates enemy 'Mechs with a single, well-placed shot, but only a few 'Mechs are able to mount. This one was specially downscaled for Assault mechs on the CT. Experimental close range firemode unlocked. 
- &lt;b&gt;&lt;color=#ffcc00&gt;Uses Railgun Ammo.&lt;/color&gt;&lt;/b&gt; 
- &lt;b&gt;&lt;color=#099ff2&gt;VOLATILE!&lt;/color&gt;&lt;/b&gt;
----
-The Railgun is a massive weapon adapted from WarShips to be used on BattleMechs. Clan technology has allowed such a massive weapon to fit a relative small space. The powerful weapon decimates enemy 'Mechs with a single, well-placed shot, but only a few 'Mechs are able to mount. This one was specially downscaled for Assault mechs on the CT. Experimental close range firemode unlocked. 
 &lt;b&gt;&lt;color=#ffcc00&gt;Uses Railgun Ammo.&lt;/color&gt;&lt;/b&gt; 
 &lt;b&gt;&lt;color=#099ff2&gt;VOLATILE!&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The Railgun is a massive weapon adapted from WarShips to be used on BattleMechs. Clan technology has allowed such a massive weapon to fit a relative small space. The powerful weapon decimates enemy 'Mechs with a single, well-placed shot, but only a few 'Mechs are able to mount. This one was specially downscaled for Assault mechs on the CT. Experimental close range firemode unlocked. 
-  &lt;b&gt;&lt;color=#ffcc00&gt;Uses Railgun Ammo.&lt;/color&gt;&lt;/b&gt; 
-  &lt;b&gt;&lt;color=#099ff2&gt;VOLATILE!&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Weapon_Gauss_Railgun_DOWNSCALED.Description.Name</t>
   </si>
   <si>
@@ -1835,17 +1723,14 @@
     <t>Weapon_Gauss_Railgun_PROTOTYPE.Description.Details</t>
   </si>
   <si>
+    <t xml:space="preserve">The latest Railgun variant downscaled set to mountable into normal mech sized mech chassis. This versions brings a lot more improvements and a radical change in space conservation. The downside to this radical of an upgrade, is that the mech used in this, the Stone Rhino - R, has this permanently affixed into the chassis, sacrificing adaptability for role specialization. A specialized CASE system that spreads its capacitors safely around the torso makes it safer to use. Experimental close range firemode unlocked.  
+&lt;b&gt;&lt;color=#ffcc00&gt;Uses Railgun Ammo.&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">The latest Railgun variant downscaled set to mountable into normal mech sized mech chassis. This versions brings a lot more improvements and a radical change in space conservation. The downside to this radical of an upgrade, is that the mech used in this, the Stone Rhino - R, has this permanently affixed into the chassis, sacrificing adaptability for role specialization. A specialized CASE system that spreads its capacitors safely around the torso makes it safer to use. Experimental close range firemode unlocked. 
- &lt;b&gt;&lt;color=#ffcc00&gt;Uses Railgun Ammo.&lt;/color&gt;&lt;/b&gt;
----
-The latest Railgun variant downscaled set to mountable into normal mech sized mech chassis. This versions brings a lot more improvements and a radical change in space conservation. The downside to this radical of an upgrade, is that the mech used in this, the Stone Rhino - R, has this permanently affixed into the chassis, sacrificing adaptability for role specialization. A specialized CASE system that spreads its capacitors safely around the torso makes it safer to use. Experimental close range firemode unlocked.  
 &lt;b&gt;&lt;color=#ffcc00&gt;Uses Railgun Ammo.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The latest Railgun variant downscaled set to mountable into normal mech sized mech chassis. This versions brings a lot more improvements and a radical change in space conservation. The downside to this radical of an upgrade, is that the mech used in this, the Stone Rhino - R, has this permanently affixed into the chassis, sacrificing adaptability for role specialization. A specialized CASE system that spreads its capacitors safely around the torso makes it safer to use. Experimental close range firemode unlocked. 
-  &lt;b&gt;&lt;color=#ffcc00&gt;Uses Railgun Ammo.&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Weapon_Gauss_Railgun_PROTOTYPE.Description.Name</t>
   </si>
   <si>
@@ -1861,18 +1746,14 @@
     <t>Weapon_Gauss_Rotary_AntiPersonal_Large_Bore_Gauss_Rifle.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">A Clan Wolverine prototype Rotary AntiPersonal Large Bore Gauss Rifle, or RAPLBGR. With probably the worst acronym ever, this weapon is a reconceptualization of Project Omega's RGR, mainly made for annihilation of Elementals and infantry units from, but capable enough to damage other mechs. 
- &lt;b&gt;&lt;color=#ffcc00&gt;Uses RAPLBGR Ammo.&lt;/color&gt;&lt;/b&gt; 
- &lt;b&gt;&lt;color=#099ff2&gt;VOLATILE!&lt;/color&gt;&lt;/b&gt;
----
-A Clan Wolverine prototype Rotary AntiPersonal Large Bore Gauss Rifle, or RAPLBGR. With probably the worst acronym ever, this weapon is a reconceptualization of Project Omega's RGR, mainly made for annihilation of Elementals and infantry units from, but capable enough to damage other mechs.  
+    <t xml:space="preserve">A Clan Wolverine prototype Rotary AntiPersonal Large Bore Gauss Rifle, or RAPLBGR. With probably the worst acronym ever, this weapon is a reconceptualization of Project Omega's RGR, mainly made for annihilation of Elementals and infantry units from, but capable enough to damage other mechs.  
 &lt;b&gt;&lt;color=#ffcc00&gt;Uses RAPLBGR Ammo.&lt;/color&gt;&lt;/b&gt; 
 &lt;b&gt;&lt;color=#099ff2&gt;VOLATILE!&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">A Clan Wolverine prototype Rotary AntiPersonal Large Bore Gauss Rifle, or RAPLBGR. With probably the worst acronym ever, this weapon is a reconceptualization of Project Omega's RGR, mainly made for annihilation of Elementals and infantry units from, but capable enough to damage other mechs. 
-  &lt;b&gt;&lt;color=#ffcc00&gt;Uses RAPLBGR Ammo.&lt;/color&gt;&lt;/b&gt; 
-  &lt;b&gt;&lt;color=#099ff2&gt;VOLATILE!&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Uses RAPLBGR Ammo.&lt;/color&gt;&lt;/b&gt; 
+&lt;b&gt;&lt;color=#099ff2&gt;VOLATILE!&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>Weapon_Gauss_Rotary_AntiPersonal_Large_Bore_Gauss_Rifle.Description.Name</t>
@@ -1890,18 +1771,14 @@
     <t>Weapon_Gauss_Rotary_Gauss_Rifle.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">A Clan Wolverine prototype Rotary Gauss Rifle. First Conceptualized on Project Omega, now added into a RACzilla's chassis. Generates a lot more heat for each shot fired. Has a special ''Overload'' mode, this mode shots a single superheated gauss shot which causes heavy damage to any targets, using this mode is normally not recommended since it causes heavy stress on the weapon, but helps in saving ammo. 
- &lt;b&gt;&lt;color=#ffcc00&gt;Uses Gauss Ammo.&lt;/color&gt;&lt;/b&gt; 
- &lt;b&gt;&lt;color=#099ff2&gt;REALLY VOLATILE!&lt;/color&gt;&lt;/b&gt;
----
-A Clan Wolverine prototype Rotary Gauss Rifle. First Conceptualized on Project Omega, now added into a RACzilla's chassis. Generates a lot more heat for each shot fired. Has a special ''Overload'' mode, this mode shots a single superheated gauss shot which causes heavy damage to any targets, using this mode is normally not recommended since it causes heavy stress on the weapon, but helps in saving ammo.  
+    <t xml:space="preserve">A Clan Wolverine prototype Rotary Gauss Rifle. First Conceptualized on Project Omega, now added into a RACzilla's chassis. Generates a lot more heat for each shot fired. Has a special ''Overload'' mode, this mode shots a single superheated gauss shot which causes heavy damage to any targets, using this mode is normally not recommended since it causes heavy stress on the weapon, but helps in saving ammo.  
 &lt;b&gt;&lt;color=#ffcc00&gt;Uses Gauss Ammo.&lt;/color&gt;&lt;/b&gt; 
 &lt;b&gt;&lt;color=#099ff2&gt;REALLY VOLATILE!&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">A Clan Wolverine prototype Rotary Gauss Rifle. First Conceptualized on Project Omega, now added into a RACzilla's chassis. Generates a lot more heat for each shot fired. Has a special ''Overload'' mode, this mode shots a single superheated gauss shot which causes heavy damage to any targets, using this mode is normally not recommended since it causes heavy stress on the weapon, but helps in saving ammo. 
-  &lt;b&gt;&lt;color=#ffcc00&gt;Uses Gauss Ammo.&lt;/color&gt;&lt;/b&gt; 
-  &lt;b&gt;&lt;color=#099ff2&gt;REALLY VOLATILE!&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Uses Gauss Ammo.&lt;/color&gt;&lt;/b&gt; 
+&lt;b&gt;&lt;color=#099ff2&gt;REALLY VOLATILE!&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>Weapon_Gauss_Rotary_Gauss_Rifle.Description.Name</t>
@@ -1917,19 +1794,10 @@
   </si>
   <si>
     <t xml:space="preserve">A Clan Society prototype Heavy Silver Bullet Gauss Rifle, what would later become the Hyper Assault Gauss Rifle, firing submunitions capable to utterly crush any target it is aimed at. 
- &lt;b&gt;&lt;color=#ffcc00&gt;Uses Gauss Ammo.&lt;/color&gt;&lt;/b&gt; 
- &lt;b&gt;&lt;color=#099ff2&gt;VOLATILE!&lt;/color&gt;&lt;/b&gt;
----
-A Clan Society prototype Heavy Silver Bullet Gauss Rifle, what would later become the Hyper Assault Gauss Rifle, firing submunitions capable to utterly crush any target it is aimed at. 
 &lt;b&gt;&lt;color=#ffcc00&gt;Uses Gauss Ammo.&lt;/color&gt;&lt;/b&gt; 
 &lt;b&gt;&lt;color=#099ff2&gt;VOLATILE!&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">A Clan Society prototype Heavy Silver Bullet Gauss Rifle, what would later become the Hyper Assault Gauss Rifle, firing submunitions capable to utterly crush any target it is aimed at. 
-  &lt;b&gt;&lt;color=#ffcc00&gt;Uses Gauss Ammo.&lt;/color&gt;&lt;/b&gt; 
-  &lt;b&gt;&lt;color=#099ff2&gt;VOLATILE!&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Weapon_HGauss_SB_CLAN.Description.Name</t>
   </si>
   <si>
@@ -1945,18 +1813,14 @@
     <t>Weapon_Laser_AMS_CLAN_Advanced.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">With the advancements of AMS laser-based technology, this advanced version of the Clan Laser AMS is capable of protecting multiple units within range from missile salvos. 
-  &lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt; 
-  &lt;b&gt;&lt;color=#bd00fc&gt;Advanced extra mode enables for Solo and Lance Protection, as well as Overload&lt;/color&gt; &lt;/b&gt;
----
-With the advancements of AMS laser-based technology, this advanced version of the Clan Laser AMS is capable of protecting multiple units within range from missile salvos.  
+    <t xml:space="preserve">With the advancements of AMS laser-based technology, this advanced version of the Clan Laser AMS is capable of protecting multiple units within range from missile salvos.  
  &lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt; 
  &lt;b&gt;&lt;color=#bd00fc&gt;Advanced extra mode enables for Solo and Lance Protection, as well as Overload&lt;/color&gt; &lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">With the advancements of AMS laser-based technology, this advanced version of the Clan Laser AMS is capable of protecting multiple units within range from missile salvos. 
-  &lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt; 
-  &lt;b&gt;&lt;color=#bd00fc&gt;Advanced extra mode enables for Solo and Lance Protection, as well as Overload&lt;/color&gt; &lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#00ffff&gt;Left Click on Chance to hit during battle to switch firing mode&lt;/color&gt; &lt;/b&gt; 
+&lt;b&gt;&lt;color=#bd00fc&gt;Advanced extra mode enables for Solo and Lance Protection, as well as Overload&lt;/color&gt; &lt;/b&gt;</t>
   </si>
   <si>
     <t>Weapon_Laser_AMS_CLAN_Advanced.Description.Name</t>
@@ -2018,17 +1882,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2043,12 +1902,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2343,3668 +2201,4664 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C332"/>
+  <dimension ref="A1:E332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C332"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="3"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="3"/>
+    <col min="1" max="3" width="72.140625" customWidth="1" style="2"/>
+    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" s="4" customFormat="1">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E14" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E17" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E19" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E21" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E22" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="E23" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E24" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="E25" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E26" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E27" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E28" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E29" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E30" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" s="4" customFormat="1">
-      <c r="A32" s="4" t="s">
+      <c r="E31" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="E32" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E33" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" s="4" customFormat="1">
-      <c r="A35" s="4" t="s">
+      <c r="E34" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E35" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="E36" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" s="4" customFormat="1">
-      <c r="A38" s="4" t="s">
+      <c r="E37" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="E38" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="E39" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" s="4" customFormat="1">
-      <c r="A41" s="4" t="s">
+      <c r="E40" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E41" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="E42" s="2">
+        <v>42</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" s="4" customFormat="1">
-      <c r="A44" s="4" t="s">
+      <c r="E43" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="E44" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="E45" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" s="4" customFormat="1">
-      <c r="A47" s="4" t="s">
+      <c r="E46" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="E47" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="E48" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" s="4" customFormat="1">
-      <c r="A50" s="4" t="s">
+      <c r="E49" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="E50" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="E51" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53" s="4" customFormat="1">
-      <c r="A53" s="4" t="s">
+      <c r="E52" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="E53" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="E54" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="56" s="4" customFormat="1">
-      <c r="A56" s="4" t="s">
+      <c r="E55" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="E56" s="2">
+        <v>56</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="E57" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="59" s="4" customFormat="1">
-      <c r="A59" s="4" t="s">
+      <c r="E58" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E59" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E60" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="62" s="4" customFormat="1">
-      <c r="A62" s="4" t="s">
+      <c r="E61" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E62" s="2">
+        <v>62</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="E63" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="65" s="4" customFormat="1">
-      <c r="A65" s="4" t="s">
+      <c r="E64" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="E65" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="E66" s="2">
+        <v>66</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="68" s="4" customFormat="1">
-      <c r="A68" s="4" t="s">
+      <c r="E67" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="E68" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="E69" s="2">
+        <v>69</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="71" s="4" customFormat="1">
-      <c r="A71" s="4" t="s">
+      <c r="E70" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="E71" s="2">
+        <v>71</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="E72" s="2">
+        <v>72</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="E73" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="E74" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="E75" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="E76" s="2">
+        <v>76</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="E77" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="E78" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E79" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="E80" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="E81" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="E82" s="2">
+        <v>82</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="E83" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="E84" s="2">
+        <v>84</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="E85" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="E86" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="E87" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="E88" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="E89" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="E90" s="2">
+        <v>90</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="E91" s="2">
+        <v>91</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="E92" s="2">
+        <v>92</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="E93" s="2">
+        <v>93</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="E94" s="2">
+        <v>94</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="E95" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="E96" s="2">
+        <v>96</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="E97" s="2">
+        <v>97</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="E98" s="2">
+        <v>98</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="E99" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="E100" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="E101" s="2">
+        <v>101</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="E102" s="2">
+        <v>102</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="E103" s="2">
+        <v>103</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="E104" s="2">
+        <v>104</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>216</v>
       </c>
+      <c r="E105" s="2">
+        <v>105</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="E106" s="2">
+        <v>106</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="E107" s="2">
+        <v>107</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="E108" s="2">
+        <v>108</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="E109" s="2">
+        <v>109</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>224</v>
       </c>
+      <c r="E110" s="2">
+        <v>110</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E111" s="2">
+        <v>111</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="E112" s="2">
+        <v>112</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>230</v>
       </c>
+      <c r="E113" s="2">
+        <v>113</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="E114" s="2">
+        <v>114</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>234</v>
       </c>
+      <c r="E115" s="2">
+        <v>115</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>236</v>
       </c>
+      <c r="E116" s="2">
+        <v>116</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="E117" s="2">
+        <v>117</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>240</v>
       </c>
+      <c r="E118" s="2">
+        <v>118</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="E119" s="2">
+        <v>119</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>244</v>
       </c>
+      <c r="E120" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="E121" s="2">
+        <v>121</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="E122" s="2">
+        <v>122</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>224</v>
       </c>
+      <c r="E123" s="2">
+        <v>123</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E124" s="2">
+        <v>124</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="E125" s="2">
+        <v>125</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>230</v>
       </c>
+      <c r="E126" s="2">
+        <v>126</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="E127" s="2">
+        <v>127</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>234</v>
       </c>
+      <c r="E128" s="2">
+        <v>128</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>236</v>
       </c>
+      <c r="E129" s="2">
+        <v>129</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="E130" s="2">
+        <v>130</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>240</v>
       </c>
+      <c r="E131" s="2">
+        <v>131</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="E132" s="2">
+        <v>132</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="2" t="s">
         <v>260</v>
       </c>
+      <c r="E133" s="2">
+        <v>133</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="E134" s="2">
+        <v>134</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="E135" s="2">
+        <v>135</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>265</v>
       </c>
+      <c r="E136" s="2">
+        <v>136</v>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="2" t="s">
         <v>267</v>
       </c>
+      <c r="E137" s="2">
+        <v>137</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="E138" s="2">
+        <v>138</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="E139" s="2">
+        <v>139</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="2" t="s">
         <v>265</v>
       </c>
+      <c r="E140" s="2">
+        <v>140</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="2" t="s">
         <v>267</v>
       </c>
+      <c r="E141" s="2">
+        <v>141</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="E142" s="2">
+        <v>142</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="2" t="s">
         <v>234</v>
       </c>
+      <c r="E143" s="2">
+        <v>143</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E144" s="2">
+        <v>144</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="E145" s="2">
+        <v>145</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="2" t="s">
         <v>280</v>
       </c>
+      <c r="E146" s="2">
+        <v>146</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="E147" s="2">
+        <v>147</v>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="E148" s="2">
+        <v>148</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="2" t="s">
         <v>286</v>
       </c>
+      <c r="E149" s="2">
+        <v>149</v>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="2" t="s">
         <v>286</v>
       </c>
+      <c r="E150" s="2">
+        <v>150</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E151" s="2">
+        <v>151</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="E152" s="2">
+        <v>152</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="154" s="4" customFormat="1">
-      <c r="A154" s="4" t="s">
+      <c r="E153" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="2" t="s">
         <v>294</v>
       </c>
+      <c r="E154" s="2">
+        <v>154</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="E155" s="2">
+        <v>155</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="2" t="s">
         <v>298</v>
       </c>
+      <c r="E156" s="2">
+        <v>156</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="E157" s="2">
+        <v>157</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="E158" s="2">
+        <v>158</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="E159" s="2">
+        <v>159</v>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="E160" s="2">
+        <v>160</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="2" t="s">
         <v>306</v>
       </c>
+      <c r="E161" s="2">
+        <v>161</v>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="E162" s="2">
+        <v>162</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="E163" s="2">
+        <v>163</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="E164" s="2">
+        <v>164</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="E165" s="2">
+        <v>165</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="E166" s="2">
+        <v>166</v>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="E167" s="2">
+        <v>167</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="2" t="s">
         <v>316</v>
       </c>
+      <c r="E168" s="2">
+        <v>168</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="2" t="s">
         <v>318</v>
       </c>
+      <c r="E169" s="2">
+        <v>169</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="E170" s="2">
+        <v>170</v>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="E171" s="2">
+        <v>171</v>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="E172" s="2">
+        <v>172</v>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="E173" s="2">
+        <v>173</v>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="E174" s="2">
+        <v>174</v>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="E175" s="2">
+        <v>175</v>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="E176" s="2">
+        <v>176</v>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="2" t="s">
         <v>329</v>
       </c>
+      <c r="E177" s="2">
+        <v>177</v>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="2" t="s">
         <v>331</v>
       </c>
+      <c r="E178" s="2">
+        <v>178</v>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="2" t="s">
         <v>333</v>
       </c>
+      <c r="E179" s="2">
+        <v>179</v>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="E180" s="2">
+        <v>180</v>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="E181" s="2">
+        <v>181</v>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="E182" s="2">
+        <v>182</v>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="E183" s="2">
+        <v>183</v>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="E184" s="2">
+        <v>184</v>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="E185" s="2">
+        <v>185</v>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="E186" s="2">
+        <v>186</v>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="E187" s="2">
+        <v>187</v>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="E188" s="2">
+        <v>188</v>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="E189" s="2">
+        <v>189</v>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="2" t="s">
         <v>347</v>
       </c>
+      <c r="E190" s="2">
+        <v>190</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="E191" s="2">
+        <v>191</v>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="E192" s="2">
+        <v>192</v>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="E193" s="2">
+        <v>193</v>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="E194" s="2">
+        <v>194</v>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="E195" s="2">
+        <v>195</v>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="E196" s="2">
+        <v>196</v>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="E197" s="2">
+        <v>197</v>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="E198" s="2">
+        <v>198</v>
+      </c>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="E199" s="2">
+        <v>199</v>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="201" s="4" customFormat="1">
-      <c r="A201" s="4" t="s">
+      <c r="E200" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C201" s="2" t="s">
         <v>362</v>
       </c>
+      <c r="E201" s="2">
+        <v>201</v>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="E202" s="2">
+        <v>202</v>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="E203" s="2">
+        <v>203</v>
+      </c>
     </row>
     <row r="204">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="E204" s="2">
+        <v>204</v>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="E205" s="2">
+        <v>205</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="E206" s="2">
+        <v>206</v>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="E207" s="2">
+        <v>207</v>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="E208" s="2">
+        <v>208</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="E209" s="2">
+        <v>209</v>
+      </c>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="2" t="s">
         <v>376</v>
       </c>
+      <c r="E210" s="2">
+        <v>210</v>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="2" t="s">
         <v>376</v>
       </c>
+      <c r="E211" s="2">
+        <v>211</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="E212" s="2">
+        <v>212</v>
+      </c>
     </row>
     <row r="213">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="2" t="s">
         <v>381</v>
       </c>
+      <c r="E213" s="2">
+        <v>213</v>
+      </c>
     </row>
     <row r="214">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="2" t="s">
         <v>383</v>
       </c>
+      <c r="E214" s="2">
+        <v>214</v>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="2" t="s">
         <v>385</v>
       </c>
+      <c r="E215" s="2">
+        <v>215</v>
+      </c>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="2" t="s">
         <v>383</v>
       </c>
+      <c r="E216" s="2">
+        <v>216</v>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="2" t="s">
         <v>385</v>
       </c>
+      <c r="E217" s="2">
+        <v>217</v>
+      </c>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="2" t="s">
         <v>389</v>
       </c>
+      <c r="E218" s="2">
+        <v>218</v>
+      </c>
     </row>
     <row r="219">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="2" t="s">
         <v>391</v>
       </c>
+      <c r="E219" s="2">
+        <v>219</v>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="2" t="s">
         <v>391</v>
       </c>
+      <c r="E220" s="2">
+        <v>220</v>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="2" t="s">
         <v>394</v>
       </c>
+      <c r="E221" s="2">
+        <v>221</v>
+      </c>
     </row>
     <row r="222">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="2" t="s">
         <v>396</v>
       </c>
+      <c r="E222" s="2">
+        <v>222</v>
+      </c>
     </row>
     <row r="223">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="2" t="s">
         <v>398</v>
       </c>
+      <c r="E223" s="2">
+        <v>223</v>
+      </c>
     </row>
     <row r="224">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="2" t="s">
         <v>400</v>
       </c>
+      <c r="E224" s="2">
+        <v>224</v>
+      </c>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="2" t="s">
         <v>280</v>
       </c>
+      <c r="E225" s="2">
+        <v>225</v>
+      </c>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="E226" s="2">
+        <v>226</v>
+      </c>
     </row>
     <row r="227">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="2" t="s">
         <v>404</v>
       </c>
+      <c r="E227" s="2">
+        <v>227</v>
+      </c>
     </row>
     <row r="228">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="229" s="4" customFormat="1">
-      <c r="A229" s="4" t="s">
+      <c r="E228" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C229" s="2" t="s">
         <v>406</v>
       </c>
+      <c r="E229" s="2">
+        <v>229</v>
+      </c>
     </row>
     <row r="230">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="E230" s="2">
+        <v>230</v>
+      </c>
     </row>
     <row r="231">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="2" t="s">
         <v>381</v>
       </c>
+      <c r="E231" s="2">
+        <v>231</v>
+      </c>
     </row>
     <row r="232">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="2" t="s">
         <v>412</v>
       </c>
+      <c r="E232" s="2">
+        <v>232</v>
+      </c>
     </row>
     <row r="233">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="2" t="s">
         <v>414</v>
       </c>
+      <c r="E233" s="2">
+        <v>233</v>
+      </c>
     </row>
     <row r="234">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="2" t="s">
         <v>383</v>
       </c>
+      <c r="E234" s="2">
+        <v>234</v>
+      </c>
     </row>
     <row r="235">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="2" t="s">
         <v>385</v>
       </c>
+      <c r="E235" s="2">
+        <v>235</v>
+      </c>
     </row>
     <row r="236">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="2" t="s">
         <v>398</v>
       </c>
+      <c r="E236" s="2">
+        <v>236</v>
+      </c>
     </row>
     <row r="237">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="2" t="s">
         <v>400</v>
       </c>
+      <c r="E237" s="2">
+        <v>237</v>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="2" t="s">
         <v>420</v>
       </c>
+      <c r="E238" s="2">
+        <v>238</v>
+      </c>
     </row>
     <row r="239">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="2" t="s">
         <v>422</v>
       </c>
+      <c r="E239" s="2">
+        <v>239</v>
+      </c>
     </row>
     <row r="240">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="2" t="s">
         <v>424</v>
       </c>
+      <c r="E240" s="2">
+        <v>240</v>
+      </c>
     </row>
     <row r="241">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="2" t="s">
         <v>426</v>
       </c>
+      <c r="E241" s="2">
+        <v>241</v>
+      </c>
     </row>
     <row r="242">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="2" t="s">
         <v>428</v>
       </c>
+      <c r="E242" s="2">
+        <v>242</v>
+      </c>
     </row>
     <row r="243">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="E243" s="2">
+        <v>243</v>
+      </c>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="E244" s="2">
+        <v>244</v>
+      </c>
     </row>
     <row r="245">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="E245" s="2">
+        <v>245</v>
+      </c>
     </row>
     <row r="246">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="E246" s="2">
+        <v>246</v>
+      </c>
     </row>
     <row r="247">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="E247" s="2">
+        <v>247</v>
+      </c>
     </row>
     <row r="248">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="E248" s="2">
+        <v>248</v>
+      </c>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="E249" s="2">
+        <v>249</v>
+      </c>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="E250" s="2">
+        <v>250</v>
+      </c>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="2" t="s">
         <v>420</v>
       </c>
+      <c r="E251" s="2">
+        <v>251</v>
+      </c>
     </row>
     <row r="252">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="2" t="s">
         <v>422</v>
       </c>
+      <c r="E252" s="2">
+        <v>252</v>
+      </c>
     </row>
     <row r="253">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="2" t="s">
         <v>424</v>
       </c>
+      <c r="E253" s="2">
+        <v>253</v>
+      </c>
     </row>
     <row r="254">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" s="2" t="s">
         <v>441</v>
       </c>
+      <c r="E254" s="2">
+        <v>254</v>
+      </c>
     </row>
     <row r="255">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="2" t="s">
         <v>443</v>
       </c>
+      <c r="E255" s="2">
+        <v>255</v>
+      </c>
     </row>
     <row r="256">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C256" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="E256" s="2">
+        <v>256</v>
+      </c>
     </row>
     <row r="257">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="E257" s="2">
+        <v>257</v>
+      </c>
     </row>
     <row r="258">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="2" t="s">
         <v>420</v>
       </c>
+      <c r="E258" s="2">
+        <v>258</v>
+      </c>
     </row>
     <row r="259">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="2" t="s">
         <v>422</v>
       </c>
+      <c r="E259" s="2">
+        <v>259</v>
+      </c>
     </row>
     <row r="260">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="261" s="4" customFormat="1">
-      <c r="A261" s="4" t="s">
+      <c r="E260" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C261" s="4" t="s">
+      <c r="C261" s="2" t="s">
         <v>451</v>
       </c>
+      <c r="E261" s="2">
+        <v>261</v>
+      </c>
     </row>
     <row r="262">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="2" t="s">
         <v>453</v>
       </c>
+      <c r="E262" s="2">
+        <v>262</v>
+      </c>
     </row>
     <row r="263">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="2" t="s">
         <v>455</v>
       </c>
+      <c r="E263" s="2">
+        <v>263</v>
+      </c>
     </row>
     <row r="264">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C264" s="2" t="s">
         <v>457</v>
       </c>
+      <c r="E264" s="2">
+        <v>264</v>
+      </c>
     </row>
     <row r="265">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="2" t="s">
         <v>455</v>
       </c>
+      <c r="E265" s="2">
+        <v>265</v>
+      </c>
     </row>
     <row r="266">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="2" t="s">
         <v>457</v>
       </c>
+      <c r="E266" s="2">
+        <v>266</v>
+      </c>
     </row>
     <row r="267">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="2" t="s">
         <v>455</v>
       </c>
+      <c r="E267" s="2">
+        <v>267</v>
+      </c>
     </row>
     <row r="268">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="2" t="s">
         <v>457</v>
       </c>
+      <c r="E268" s="2">
+        <v>268</v>
+      </c>
     </row>
     <row r="269">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="2" t="s">
         <v>455</v>
       </c>
+      <c r="E269" s="2">
+        <v>269</v>
+      </c>
     </row>
     <row r="270">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="2" t="s">
         <v>457</v>
       </c>
+      <c r="E270" s="2">
+        <v>270</v>
+      </c>
     </row>
     <row r="271">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="2" t="s">
         <v>455</v>
       </c>
+      <c r="E271" s="2">
+        <v>271</v>
+      </c>
     </row>
     <row r="272">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="2" t="s">
         <v>457</v>
       </c>
+      <c r="E272" s="2">
+        <v>272</v>
+      </c>
     </row>
     <row r="273">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="2" t="s">
         <v>467</v>
       </c>
+      <c r="E273" s="2">
+        <v>273</v>
+      </c>
     </row>
     <row r="274">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="2" t="s">
         <v>469</v>
       </c>
+      <c r="E274" s="2">
+        <v>274</v>
+      </c>
     </row>
     <row r="275">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="2" t="s">
         <v>467</v>
       </c>
+      <c r="E275" s="2">
+        <v>275</v>
+      </c>
     </row>
     <row r="276">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="2" t="s">
         <v>472</v>
       </c>
+      <c r="E276" s="2">
+        <v>276</v>
+      </c>
     </row>
     <row r="277">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="2" t="s">
         <v>467</v>
       </c>
+      <c r="E277" s="2">
+        <v>277</v>
+      </c>
     </row>
     <row r="278">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="2" t="s">
         <v>475</v>
       </c>
+      <c r="E278" s="2">
+        <v>278</v>
+      </c>
     </row>
     <row r="279">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="C279" s="2" t="s">
         <v>477</v>
       </c>
+      <c r="E279" s="2">
+        <v>279</v>
+      </c>
     </row>
     <row r="280">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="2" t="s">
         <v>479</v>
       </c>
+      <c r="E280" s="2">
+        <v>280</v>
+      </c>
     </row>
     <row r="281">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C281" s="2" t="s">
         <v>467</v>
       </c>
+      <c r="E281" s="2">
+        <v>281</v>
+      </c>
     </row>
     <row r="282">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="283" s="4" customFormat="1">
-      <c r="A283" s="4" t="s">
+      <c r="E282" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="B283" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C283" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="284" s="4" customFormat="1">
-      <c r="A284" s="4" t="s">
+      <c r="E283" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="B284" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C284" s="4" t="s">
+      <c r="C284" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="285" s="4" customFormat="1">
-      <c r="A285" s="4" t="s">
+      <c r="E284" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B285" s="4" t="s">
+      <c r="B285" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="C285" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="286" s="4" customFormat="1">
-      <c r="A286" s="4" t="s">
+      <c r="E285" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="B286" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="C286" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="287" s="4" customFormat="1">
-      <c r="A287" s="4" t="s">
+      <c r="E286" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="B287" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="C287" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="288" s="4" customFormat="1">
-      <c r="A288" s="4" t="s">
+      <c r="E287" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B288" s="4" t="s">
+      <c r="B288" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C288" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="289" s="4" customFormat="1">
-      <c r="A289" s="4" t="s">
+      <c r="E288" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="B289" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C289" s="4" t="s">
+      <c r="C289" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="290" s="4" customFormat="1">
-      <c r="A290" s="4" t="s">
+      <c r="E289" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B290" s="4" t="s">
+      <c r="B290" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C290" s="4" t="s">
+      <c r="C290" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="291" s="4" customFormat="1">
-      <c r="A291" s="4" t="s">
+      <c r="E290" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B291" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C291" s="4" t="s">
+      <c r="C291" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="292" s="4" customFormat="1">
-      <c r="A292" s="4" t="s">
+      <c r="E291" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="B292" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C292" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="293" s="4" customFormat="1">
-      <c r="A293" s="4" t="s">
+      <c r="E292" s="2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B293" s="4" t="s">
+      <c r="B293" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="C293" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="294" s="4" customFormat="1">
-      <c r="A294" s="4" t="s">
+      <c r="E293" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="B294" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="C294" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="295" s="4" customFormat="1">
-      <c r="A295" s="4" t="s">
+      <c r="E294" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="B295" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="C295" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="296" s="4" customFormat="1">
-      <c r="A296" s="4" t="s">
+      <c r="E295" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B296" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="C296" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="297" s="4" customFormat="1">
-      <c r="A297" s="4" t="s">
+      <c r="E296" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B297" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C297" s="2" t="s">
         <v>511</v>
       </c>
+      <c r="E297" s="2">
+        <v>297</v>
+      </c>
     </row>
     <row r="298">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C298" s="2" t="s">
         <v>513</v>
       </c>
+      <c r="E298" s="2">
+        <v>298</v>
+      </c>
     </row>
     <row r="299">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C299" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="300" s="4" customFormat="1">
-      <c r="A300" s="4" t="s">
+      <c r="E299" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="B300" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C300" s="4" t="s">
+      <c r="C300" s="2" t="s">
         <v>518</v>
       </c>
+      <c r="E300" s="2">
+        <v>300</v>
+      </c>
     </row>
     <row r="301">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C301" s="2" t="s">
         <v>520</v>
       </c>
+      <c r="E301" s="2">
+        <v>301</v>
+      </c>
     </row>
     <row r="302">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C302" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="303" s="4" customFormat="1">
-      <c r="A303" s="4" t="s">
+      <c r="E302" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="B303" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C303" s="4" t="s">
+      <c r="C303" s="2" t="s">
         <v>525</v>
       </c>
+      <c r="E303" s="2">
+        <v>303</v>
+      </c>
     </row>
     <row r="304">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="2" t="s">
         <v>527</v>
       </c>
+      <c r="E304" s="2">
+        <v>304</v>
+      </c>
     </row>
     <row r="305">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C305" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="306" s="4" customFormat="1">
-      <c r="A306" s="4" t="s">
+      <c r="E305" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="B306" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C306" s="4" t="s">
+      <c r="C306" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E306" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="3" t="s">
+      <c r="B307" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="C307" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E307" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C307" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="3" t="s">
+      <c r="B308" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="C308" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E308" s="2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C308" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="309" s="4" customFormat="1">
-      <c r="A309" s="4" t="s">
+      <c r="B309" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="C309" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C309" s="4" t="s">
+      <c r="E309" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="3" t="s">
+      <c r="B310" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="C310" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E310" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C310" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="3" t="s">
+      <c r="B311" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="C311" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E311" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C311" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="312" s="4" customFormat="1">
-      <c r="A312" s="4" t="s">
+      <c r="B312" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B312" s="4" t="s">
+      <c r="C312" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C312" s="4" t="s">
+      <c r="E312" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="3" t="s">
+      <c r="B313" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="C313" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E313" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C313" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="3" t="s">
+      <c r="B314" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="C314" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E314" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C314" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="315" s="4" customFormat="1">
-      <c r="A315" s="4" t="s">
+      <c r="B315" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="C315" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C315" s="4" t="s">
+      <c r="E315" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="3" t="s">
+      <c r="B316" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="C316" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E316" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C316" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="3" t="s">
+      <c r="B317" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E317" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B317" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="318" s="4" customFormat="1">
-      <c r="A318" s="4" t="s">
+      <c r="B318" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B318" s="4" t="s">
+      <c r="C318" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E318" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C318" s="4" t="s">
+      <c r="B319" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="3" t="s">
+      <c r="C319" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E319" s="2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B320" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C320" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="3" t="s">
+      <c r="E320" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B321" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C320" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="321" s="4" customFormat="1">
-      <c r="A321" s="4" t="s">
+      <c r="C321" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="E321" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C321" s="4" t="s">
+      <c r="B322" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="3" t="s">
+      <c r="C322" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E322" s="2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B323" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C323" s="2" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="3" t="s">
+      <c r="E323" s="2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B324" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C324" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="3" t="s">
+      <c r="E324" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B325" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C325" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="3" t="s">
+      <c r="E325" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B326" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C326" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="3" t="s">
+      <c r="E326" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B327" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E327" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C326" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="3" t="s">
+      <c r="B328" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E328" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B327" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="3" t="s">
+      <c r="B329" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E329" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B328" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="3" t="s">
+      <c r="B330" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E330" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B329" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="3" t="s">
+      <c r="B331" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E331" s="2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B330" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C332" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="E332" s="2">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/ExperimentalWeapons/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/ExperimentalWeapons/LocalizationDef.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carcam\Desktop\rt localization 060721\CustomLocalization\Localization\RogueTech\RU\ExperimentalWeapons\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="630" windowWidth="28455" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" refMode="R1C1" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1874,7 +1879,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -1902,17 +1907,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1959,7 +1973,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1991,9 +2005,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2025,6 +2040,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2200,17 +2216,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="72.140625" customWidth="1" style="2"/>
-    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5045,10 +5062,10 @@
       <c r="A203" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="4" t="s">
         <v>366</v>
       </c>
       <c r="E203" s="2">
@@ -5073,10 +5090,10 @@
       <c r="A205" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="4" t="s">
         <v>366</v>
       </c>
       <c r="E205" s="2">
@@ -5101,10 +5118,10 @@
       <c r="A207" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="4" t="s">
         <v>366</v>
       </c>
       <c r="E207" s="2">
@@ -5605,10 +5622,10 @@
       <c r="A243" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="4" t="s">
         <v>366</v>
       </c>
       <c r="E243" s="2">
@@ -5633,10 +5650,10 @@
       <c r="A245" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="4" t="s">
         <v>366</v>
       </c>
       <c r="E245" s="2">
@@ -5661,10 +5678,10 @@
       <c r="A247" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="4" t="s">
         <v>366</v>
       </c>
       <c r="E247" s="2">
@@ -5689,10 +5706,10 @@
       <c r="A249" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="4" t="s">
         <v>366</v>
       </c>
       <c r="E249" s="2">
@@ -5787,10 +5804,10 @@
       <c r="A256" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="4" t="s">
         <v>366</v>
       </c>
       <c r="E256" s="2">

--- a/CustomLocalization/Localization/RogueTech/RU/ExperimentalWeapons/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/ExperimentalWeapons/LocalizationDef.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carcam\Desktop\rt localization 060721\CustomLocalization\Localization\RogueTech\RU\ExperimentalWeapons\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="630" windowWidth="28455" windowHeight="10935"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="582">
   <si>
     <t>Ammo_AmmunitionBox_RAPLBGR_GAUSS.Description.Details</t>
   </si>
@@ -611,6 +606,9 @@
   </si>
   <si>
     <t>Spall Liner</t>
+  </si>
+  <si>
+    <t>Противоосколочный подбой</t>
   </si>
   <si>
     <t>emod_armorslots_clanferrocarbide.Description.Details</t>
@@ -1879,7 +1877,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -1907,10 +1905,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
   </cellXfs>
@@ -1973,7 +1973,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2005,10 +2005,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2040,7 +2039,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2216,18 +2214,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="C337" sqref="C337"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="72.140625" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2237,7 +2235,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2">
@@ -2251,7 +2249,7 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2">
@@ -2265,7 +2263,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2">
@@ -2279,7 +2277,7 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2">
@@ -2293,7 +2291,7 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2">
@@ -2307,7 +2305,7 @@
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2">
@@ -2321,7 +2319,7 @@
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2">
@@ -2335,7 +2333,7 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2">
@@ -2349,7 +2347,7 @@
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="2">
@@ -2363,7 +2361,7 @@
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="2">
@@ -2377,7 +2375,7 @@
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="2">
@@ -2391,7 +2389,7 @@
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2">
@@ -2405,7 +2403,7 @@
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2">
@@ -2419,7 +2417,7 @@
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="2">
@@ -2433,7 +2431,7 @@
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="2">
@@ -2447,7 +2445,7 @@
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="2">
@@ -2461,7 +2459,7 @@
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="2">
@@ -2475,7 +2473,7 @@
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="2">
@@ -2489,7 +2487,7 @@
       <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="2">
@@ -2503,7 +2501,7 @@
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="2">
@@ -2517,7 +2515,7 @@
       <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="2">
@@ -2531,7 +2529,7 @@
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="2">
@@ -2545,7 +2543,7 @@
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="2">
@@ -2559,7 +2557,7 @@
       <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="2">
@@ -2573,7 +2571,7 @@
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E25" s="2">
@@ -2587,7 +2585,7 @@
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="2">
@@ -2601,7 +2599,7 @@
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="2">
@@ -2615,7 +2613,7 @@
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="2">
@@ -2629,7 +2627,7 @@
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="2">
@@ -2643,7 +2641,7 @@
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="2">
@@ -2657,7 +2655,7 @@
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="2">
@@ -2671,7 +2669,7 @@
       <c r="B32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="2">
@@ -2685,7 +2683,7 @@
       <c r="B33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="2">
@@ -2699,7 +2697,7 @@
       <c r="B34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E34" s="2">
@@ -2713,7 +2711,7 @@
       <c r="B35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="2">
@@ -2727,7 +2725,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E36" s="2">
@@ -2741,7 +2739,7 @@
       <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E37" s="2">
@@ -2755,7 +2753,7 @@
       <c r="B38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E38" s="2">
@@ -2769,7 +2767,7 @@
       <c r="B39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E39" s="2">
@@ -2783,7 +2781,7 @@
       <c r="B40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E40" s="2">
@@ -2797,7 +2795,7 @@
       <c r="B41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E41" s="2">
@@ -2811,7 +2809,7 @@
       <c r="B42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E42" s="2">
@@ -2825,7 +2823,7 @@
       <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E43" s="2">
@@ -2839,7 +2837,7 @@
       <c r="B44" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E44" s="2">
@@ -2853,7 +2851,7 @@
       <c r="B45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E45" s="2">
@@ -2867,7 +2865,7 @@
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E46" s="2">
@@ -2881,7 +2879,7 @@
       <c r="B47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E47" s="2">
@@ -2895,7 +2893,7 @@
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E48" s="2">
@@ -2909,7 +2907,7 @@
       <c r="B49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="5" t="s">
         <v>98</v>
       </c>
       <c r="E49" s="2">
@@ -2923,7 +2921,7 @@
       <c r="B50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E50" s="2">
@@ -2937,7 +2935,7 @@
       <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E51" s="2">
@@ -2951,7 +2949,7 @@
       <c r="B52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E52" s="2">
@@ -2965,7 +2963,7 @@
       <c r="B53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E53" s="2">
@@ -2979,7 +2977,7 @@
       <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="5" t="s">
         <v>110</v>
       </c>
       <c r="E54" s="2">
@@ -2993,7 +2991,7 @@
       <c r="B55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="5" t="s">
         <v>112</v>
       </c>
       <c r="E55" s="2">
@@ -3007,7 +3005,7 @@
       <c r="B56" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="2">
@@ -3021,7 +3019,7 @@
       <c r="B57" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E57" s="2">
@@ -3035,7 +3033,7 @@
       <c r="B58" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E58" s="2">
@@ -3049,7 +3047,7 @@
       <c r="B59" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E59" s="2">
@@ -3063,7 +3061,7 @@
       <c r="B60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E60" s="2">
@@ -3077,7 +3075,7 @@
       <c r="B61" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="5" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="2">
@@ -3091,7 +3089,7 @@
       <c r="B62" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="5" t="s">
         <v>129</v>
       </c>
       <c r="E62" s="2">
@@ -3105,7 +3103,7 @@
       <c r="B63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="5" t="s">
         <v>131</v>
       </c>
       <c r="E63" s="2">
@@ -3119,7 +3117,7 @@
       <c r="B64" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="5" t="s">
         <v>133</v>
       </c>
       <c r="E64" s="2">
@@ -3133,7 +3131,7 @@
       <c r="B65" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E65" s="2">
@@ -3147,7 +3145,7 @@
       <c r="B66" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E66" s="2">
@@ -3161,7 +3159,7 @@
       <c r="B67" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E67" s="2">
@@ -3175,7 +3173,7 @@
       <c r="B68" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E68" s="2">
@@ -3189,7 +3187,7 @@
       <c r="B69" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E69" s="2">
@@ -3203,7 +3201,7 @@
       <c r="B70" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E70" s="2">
@@ -3217,7 +3215,7 @@
       <c r="B71" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="5" t="s">
         <v>150</v>
       </c>
       <c r="E71" s="2">
@@ -3231,7 +3229,7 @@
       <c r="B72" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E72" s="2">
@@ -3245,7 +3243,7 @@
       <c r="B73" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E73" s="2">
@@ -3259,7 +3257,7 @@
       <c r="B74" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="5" t="s">
         <v>157</v>
       </c>
       <c r="E74" s="2">
@@ -3273,7 +3271,7 @@
       <c r="B75" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E75" s="2">
@@ -3287,7 +3285,7 @@
       <c r="B76" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="5" t="s">
         <v>161</v>
       </c>
       <c r="E76" s="2">
@@ -3301,7 +3299,7 @@
       <c r="B77" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="5" t="s">
         <v>163</v>
       </c>
       <c r="E77" s="2">
@@ -3315,7 +3313,7 @@
       <c r="B78" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E78" s="2">
@@ -3329,7 +3327,7 @@
       <c r="B79" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E79" s="2">
@@ -3343,7 +3341,7 @@
       <c r="B80" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="5" t="s">
         <v>169</v>
       </c>
       <c r="E80" s="2">
@@ -3357,7 +3355,7 @@
       <c r="B81" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E81" s="2">
@@ -3371,7 +3369,7 @@
       <c r="B82" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="5" t="s">
         <v>173</v>
       </c>
       <c r="E82" s="2">
@@ -3385,7 +3383,7 @@
       <c r="B83" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="5" t="s">
         <v>175</v>
       </c>
       <c r="E83" s="2">
@@ -3399,8 +3397,8 @@
       <c r="B84" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>177</v>
+      <c r="C84" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="E84" s="2">
         <v>84</v>
@@ -3408,13 +3406,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="E85" s="2">
         <v>85</v>
@@ -3422,13 +3420,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="E86" s="2">
         <v>86</v>
@@ -3436,13 +3434,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="E87" s="2">
         <v>87</v>
@@ -3450,13 +3448,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="E88" s="2">
         <v>88</v>
@@ -3464,13 +3462,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="E89" s="2">
         <v>89</v>
@@ -3478,13 +3476,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="E90" s="2">
         <v>90</v>
@@ -3492,13 +3490,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="E91" s="2">
         <v>91</v>
@@ -3506,13 +3504,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="E92" s="2">
         <v>92</v>
@@ -3520,13 +3518,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="E93" s="2">
         <v>93</v>
@@ -3534,13 +3532,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="E94" s="2">
         <v>94</v>
@@ -3548,13 +3546,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="E95" s="2">
         <v>95</v>
@@ -3562,13 +3560,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="E96" s="2">
         <v>96</v>
@@ -3576,13 +3574,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>177</v>
+      <c r="C97" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="E97" s="2">
         <v>97</v>
@@ -3590,13 +3588,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="E98" s="2">
         <v>98</v>
@@ -3604,13 +3602,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="E99" s="2">
         <v>99</v>
@@ -3618,13 +3616,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E100" s="2">
         <v>100</v>
@@ -3632,13 +3630,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="E101" s="2">
         <v>101</v>
@@ -3646,13 +3644,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="E102" s="2">
         <v>102</v>
@@ -3660,13 +3658,13 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="E103" s="2">
         <v>103</v>
@@ -3674,13 +3672,13 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="E104" s="2">
         <v>104</v>
@@ -3688,13 +3686,13 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="E105" s="2">
         <v>105</v>
@@ -3702,13 +3700,13 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="E106" s="2">
         <v>106</v>
@@ -3716,13 +3714,13 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="E107" s="2">
         <v>107</v>
@@ -3730,13 +3728,13 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="E108" s="2">
         <v>108</v>
@@ -3744,13 +3742,13 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>221</v>
+      <c r="C109" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="E109" s="2">
         <v>109</v>
@@ -3758,13 +3756,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="E110" s="2">
         <v>110</v>
@@ -3772,13 +3770,13 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="E111" s="2">
         <v>111</v>
@@ -3786,13 +3784,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="E112" s="2">
         <v>112</v>
@@ -3800,13 +3798,13 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="E113" s="2">
         <v>113</v>
@@ -3814,13 +3812,13 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="E114" s="2">
         <v>114</v>
@@ -3828,13 +3826,13 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="E115" s="2">
         <v>115</v>
@@ -3842,13 +3840,13 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="E116" s="2">
         <v>116</v>
@@ -3856,13 +3854,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="E117" s="2">
         <v>117</v>
@@ -3870,13 +3868,13 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="E118" s="2">
         <v>118</v>
@@ -3884,13 +3882,13 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="E119" s="2">
         <v>119</v>
@@ -3898,13 +3896,13 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="E120" s="2">
         <v>120</v>
@@ -3912,13 +3910,13 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="E121" s="2">
         <v>121</v>
@@ -3926,13 +3924,13 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="E122" s="2">
         <v>122</v>
@@ -3940,13 +3938,13 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="E123" s="2">
         <v>123</v>
@@ -3954,13 +3952,13 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="E124" s="2">
         <v>124</v>
@@ -3968,13 +3966,13 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="E125" s="2">
         <v>125</v>
@@ -3982,13 +3980,13 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="E126" s="2">
         <v>126</v>
@@ -3996,13 +3994,13 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="E127" s="2">
         <v>127</v>
@@ -4010,13 +4008,13 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="E128" s="2">
         <v>128</v>
@@ -4024,13 +4022,13 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="E129" s="2">
         <v>129</v>
@@ -4038,13 +4036,13 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="E130" s="2">
         <v>130</v>
@@ -4052,13 +4050,13 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="E131" s="2">
         <v>131</v>
@@ -4066,13 +4064,13 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="E132" s="2">
         <v>132</v>
@@ -4080,13 +4078,13 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="E133" s="2">
         <v>133</v>
@@ -4094,13 +4092,13 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="E134" s="2">
         <v>134</v>
@@ -4108,13 +4106,13 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>262</v>
+      <c r="C135" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="E135" s="2">
         <v>135</v>
@@ -4122,13 +4120,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="E136" s="2">
         <v>136</v>
@@ -4136,13 +4134,13 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="E137" s="2">
         <v>137</v>
@@ -4150,13 +4148,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="E138" s="2">
         <v>138</v>
@@ -4164,13 +4162,13 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="E139" s="2">
         <v>139</v>
@@ -4178,13 +4176,13 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="E140" s="2">
         <v>140</v>
@@ -4192,13 +4190,13 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="E141" s="2">
         <v>141</v>
@@ -4206,13 +4204,13 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="E142" s="2">
         <v>142</v>
@@ -4220,13 +4218,13 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="E143" s="2">
         <v>143</v>
@@ -4234,12 +4232,12 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E144" s="2">
@@ -4248,12 +4246,12 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="5" t="s">
         <v>169</v>
       </c>
       <c r="E145" s="2">
@@ -4262,13 +4260,13 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="E146" s="2">
         <v>146</v>
@@ -4276,13 +4274,13 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="E147" s="2">
         <v>147</v>
@@ -4290,13 +4288,13 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="E148" s="2">
         <v>148</v>
@@ -4304,13 +4302,13 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="E149" s="2">
         <v>149</v>
@@ -4318,13 +4316,13 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>286</v>
+      <c r="C150" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="E150" s="2">
         <v>150</v>
@@ -4332,12 +4330,12 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E151" s="2">
@@ -4346,12 +4344,12 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="5" t="s">
         <v>169</v>
       </c>
       <c r="E152" s="2">
@@ -4360,13 +4358,13 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="E153" s="2">
         <v>153</v>
@@ -4374,13 +4372,13 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C154" s="2" t="s">
         <v>294</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="E154" s="2">
         <v>154</v>
@@ -4388,13 +4386,13 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="E155" s="2">
         <v>155</v>
@@ -4402,13 +4400,13 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="E156" s="2">
         <v>156</v>
@@ -4416,13 +4414,13 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="E157" s="2">
         <v>157</v>
@@ -4430,13 +4428,13 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="E158" s="2">
         <v>158</v>
@@ -4444,13 +4442,13 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>301</v>
+      <c r="C159" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="E159" s="2">
         <v>159</v>
@@ -4458,13 +4456,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="E160" s="2">
         <v>160</v>
@@ -4472,13 +4470,13 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="E161" s="2">
         <v>161</v>
@@ -4486,13 +4484,13 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="E162" s="2">
         <v>162</v>
@@ -4500,13 +4498,13 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="E163" s="2">
         <v>163</v>
@@ -4514,13 +4512,13 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="E164" s="2">
         <v>164</v>
@@ -4528,13 +4526,13 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="E165" s="2">
         <v>165</v>
@@ -4542,13 +4540,13 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="E166" s="2">
         <v>166</v>
@@ -4556,13 +4554,13 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="E167" s="2">
         <v>167</v>
@@ -4570,13 +4568,13 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="E168" s="2">
         <v>168</v>
@@ -4584,13 +4582,13 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="E169" s="2">
         <v>169</v>
@@ -4598,13 +4596,13 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="E170" s="2">
         <v>170</v>
@@ -4612,13 +4610,13 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="E171" s="2">
         <v>171</v>
@@ -4626,13 +4624,13 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>322</v>
+      <c r="C172" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="E172" s="2">
         <v>172</v>
@@ -4640,13 +4638,13 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="E173" s="2">
         <v>173</v>
@@ -4654,13 +4652,13 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="E174" s="2">
         <v>174</v>
@@ -4668,13 +4666,13 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="E175" s="2">
         <v>175</v>
@@ -4682,13 +4680,13 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="E176" s="2">
         <v>176</v>
@@ -4696,13 +4694,13 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="E177" s="2">
         <v>177</v>
@@ -4710,13 +4708,13 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="E178" s="2">
         <v>178</v>
@@ -4724,13 +4722,13 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="E179" s="2">
         <v>179</v>
@@ -4738,13 +4736,13 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="E180" s="2">
         <v>180</v>
@@ -4752,13 +4750,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="E181" s="2">
         <v>181</v>
@@ -4766,13 +4764,13 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="E182" s="2">
         <v>182</v>
@@ -4780,13 +4778,13 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="E183" s="2">
         <v>183</v>
@@ -4794,13 +4792,13 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="E184" s="2">
         <v>184</v>
@@ -4808,13 +4806,13 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="E185" s="2">
         <v>185</v>
@@ -4822,13 +4820,13 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="E186" s="2">
         <v>186</v>
@@ -4836,13 +4834,13 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="E187" s="2">
         <v>187</v>
@@ -4850,13 +4848,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="E188" s="2">
         <v>188</v>
@@ -4864,13 +4862,13 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="E189" s="2">
         <v>189</v>
@@ -4878,13 +4876,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="E190" s="2">
         <v>190</v>
@@ -4892,13 +4890,13 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>350</v>
       </c>
       <c r="E191" s="2">
         <v>191</v>
@@ -4906,13 +4904,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="E192" s="2">
         <v>192</v>
@@ -4920,13 +4918,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="E193" s="2">
         <v>193</v>
@@ -4934,13 +4932,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="E194" s="2">
         <v>194</v>
@@ -4948,13 +4946,13 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="E195" s="2">
         <v>195</v>
@@ -4962,13 +4960,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="E196" s="2">
         <v>196</v>
@@ -4976,13 +4974,13 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="E197" s="2">
         <v>197</v>
@@ -4990,13 +4988,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="E198" s="2">
         <v>198</v>
@@ -5004,13 +5002,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="E199" s="2">
         <v>199</v>
@@ -5018,13 +5016,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="E200" s="2">
         <v>200</v>
@@ -5032,13 +5030,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C201" s="2" t="s">
         <v>362</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>363</v>
       </c>
       <c r="E201" s="2">
         <v>201</v>
@@ -5046,13 +5044,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="E202" s="2">
         <v>202</v>
@@ -5060,13 +5058,13 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="E203" s="2">
         <v>203</v>
@@ -5074,13 +5072,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="E204" s="2">
         <v>204</v>
@@ -5088,13 +5086,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="E205" s="2">
         <v>205</v>
@@ -5102,13 +5100,13 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="E206" s="2">
         <v>206</v>
@@ -5116,13 +5114,13 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="E207" s="2">
         <v>207</v>
@@ -5130,13 +5128,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="E208" s="2">
         <v>208</v>
@@ -5144,13 +5142,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="E209" s="2">
         <v>209</v>
@@ -5158,13 +5156,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="E210" s="2">
         <v>210</v>
@@ -5172,13 +5170,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>376</v>
+      <c r="C211" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="E211" s="2">
         <v>211</v>
@@ -5186,13 +5184,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="E212" s="2">
         <v>212</v>
@@ -5200,13 +5198,13 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="E213" s="2">
         <v>213</v>
@@ -5214,13 +5212,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="E214" s="2">
         <v>214</v>
@@ -5228,13 +5226,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="E215" s="2">
         <v>215</v>
@@ -5242,13 +5240,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="E216" s="2">
         <v>216</v>
@@ -5256,13 +5254,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="E217" s="2">
         <v>217</v>
@@ -5270,13 +5268,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="E218" s="2">
         <v>218</v>
@@ -5284,13 +5282,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="E219" s="2">
         <v>219</v>
@@ -5298,13 +5296,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>391</v>
+      <c r="C220" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="E220" s="2">
         <v>220</v>
@@ -5312,13 +5310,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="E221" s="2">
         <v>221</v>
@@ -5326,13 +5324,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="E222" s="2">
         <v>222</v>
@@ -5340,13 +5338,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="E223" s="2">
         <v>223</v>
@@ -5354,13 +5352,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="E224" s="2">
         <v>224</v>
@@ -5368,13 +5366,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="E225" s="2">
         <v>225</v>
@@ -5382,13 +5380,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="E226" s="2">
         <v>226</v>
@@ -5396,13 +5394,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="E227" s="2">
         <v>227</v>
@@ -5410,13 +5408,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="E228" s="2">
         <v>228</v>
@@ -5424,13 +5422,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C229" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="E229" s="2">
         <v>229</v>
@@ -5438,13 +5436,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="E230" s="2">
         <v>230</v>
@@ -5452,13 +5450,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="E231" s="2">
         <v>231</v>
@@ -5466,13 +5464,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="E232" s="2">
         <v>232</v>
@@ -5480,13 +5478,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="E233" s="2">
         <v>233</v>
@@ -5494,13 +5492,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="E234" s="2">
         <v>234</v>
@@ -5508,13 +5506,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="E235" s="2">
         <v>235</v>
@@ -5522,13 +5520,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="E236" s="2">
         <v>236</v>
@@ -5536,13 +5534,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="E237" s="2">
         <v>237</v>
@@ -5550,13 +5548,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>421</v>
       </c>
       <c r="E238" s="2">
         <v>238</v>
@@ -5564,13 +5562,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="E239" s="2">
         <v>239</v>
@@ -5578,13 +5576,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="E240" s="2">
         <v>240</v>
@@ -5592,13 +5590,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="E241" s="2">
         <v>241</v>
@@ -5606,13 +5604,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="E242" s="2">
         <v>242</v>
@@ -5620,13 +5618,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="E243" s="2">
         <v>243</v>
@@ -5634,13 +5632,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="E244" s="2">
         <v>244</v>
@@ -5648,13 +5646,13 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="E245" s="2">
         <v>245</v>
@@ -5662,13 +5660,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="E246" s="2">
         <v>246</v>
@@ -5676,13 +5674,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="E247" s="2">
         <v>247</v>
@@ -5690,13 +5688,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="E248" s="2">
         <v>248</v>
@@ -5704,13 +5702,13 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="E249" s="2">
         <v>249</v>
@@ -5718,13 +5716,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="E250" s="2">
         <v>250</v>
@@ -5732,13 +5730,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>421</v>
       </c>
       <c r="E251" s="2">
         <v>251</v>
@@ -5746,13 +5744,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="E252" s="2">
         <v>252</v>
@@ -5760,13 +5758,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="E253" s="2">
         <v>253</v>
@@ -5774,13 +5772,13 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="E254" s="2">
         <v>254</v>
@@ -5788,13 +5786,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="E255" s="2">
         <v>255</v>
@@ -5802,13 +5800,13 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="E256" s="2">
         <v>256</v>
@@ -5816,13 +5814,13 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="E257" s="2">
         <v>257</v>
@@ -5830,13 +5828,13 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>421</v>
       </c>
       <c r="E258" s="2">
         <v>258</v>
@@ -5844,13 +5842,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="E259" s="2">
         <v>259</v>
@@ -5858,13 +5856,13 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="E260" s="2">
         <v>260</v>
@@ -5872,13 +5870,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C261" s="2" t="s">
         <v>451</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="E261" s="2">
         <v>261</v>
@@ -5886,13 +5884,13 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="E262" s="2">
         <v>262</v>
@@ -5900,13 +5898,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="E263" s="2">
         <v>263</v>
@@ -5914,13 +5912,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="E264" s="2">
         <v>264</v>
@@ -5928,13 +5926,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="E265" s="2">
         <v>265</v>
@@ -5942,13 +5940,13 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="E266" s="2">
         <v>266</v>
@@ -5956,13 +5954,13 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="E267" s="2">
         <v>267</v>
@@ -5970,13 +5968,13 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="E268" s="2">
         <v>268</v>
@@ -5984,13 +5982,13 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="E269" s="2">
         <v>269</v>
@@ -5998,13 +5996,13 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="E270" s="2">
         <v>270</v>
@@ -6012,13 +6010,13 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="E271" s="2">
         <v>271</v>
@@ -6026,13 +6024,13 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="E272" s="2">
         <v>272</v>
@@ -6040,13 +6038,13 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="E273" s="2">
         <v>273</v>
@@ -6054,13 +6052,13 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>470</v>
       </c>
       <c r="E274" s="2">
         <v>274</v>
@@ -6068,13 +6066,13 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="E275" s="2">
         <v>275</v>
@@ -6082,13 +6080,13 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>473</v>
       </c>
       <c r="E276" s="2">
         <v>276</v>
@@ -6096,13 +6094,13 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="E277" s="2">
         <v>277</v>
@@ -6110,13 +6108,13 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>476</v>
       </c>
       <c r="E278" s="2">
         <v>278</v>
@@ -6124,13 +6122,13 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>478</v>
       </c>
       <c r="E279" s="2">
         <v>279</v>
@@ -6138,13 +6136,13 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="E280" s="2">
         <v>280</v>
@@ -6152,13 +6150,13 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="E281" s="2">
         <v>281</v>
@@ -6166,13 +6164,13 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>483</v>
       </c>
       <c r="E282" s="2">
         <v>282</v>
@@ -6180,12 +6178,12 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E283" s="2">
@@ -6194,13 +6192,13 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C284" s="2" t="s">
         <v>486</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="E284" s="2">
         <v>284</v>
@@ -6208,13 +6206,13 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C285" s="2" t="s">
         <v>489</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="E285" s="2">
         <v>285</v>
@@ -6222,12 +6220,12 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E286" s="2">
@@ -6236,13 +6234,13 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C287" s="2" t="s">
         <v>493</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="E287" s="2">
         <v>287</v>
@@ -6250,13 +6248,13 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C288" s="2" t="s">
         <v>496</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>497</v>
       </c>
       <c r="E288" s="2">
         <v>288</v>
@@ -6264,13 +6262,13 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C289" s="2" t="s">
         <v>499</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>500</v>
       </c>
       <c r="E289" s="2">
         <v>289</v>
@@ -6278,12 +6276,12 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C290" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E290" s="2">
@@ -6292,12 +6290,12 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E291" s="2">
@@ -6306,12 +6304,12 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E292" s="2">
@@ -6320,12 +6318,12 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" s="5" t="s">
         <v>129</v>
       </c>
       <c r="E293" s="2">
@@ -6334,12 +6332,12 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E294" s="2">
@@ -6348,12 +6346,12 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E295" s="2">
@@ -6362,13 +6360,13 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C296" s="2" t="s">
         <v>508</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="E296" s="2">
         <v>296</v>
@@ -6376,13 +6374,13 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C297" s="2" t="s">
         <v>511</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>512</v>
       </c>
       <c r="E297" s="2">
         <v>297</v>
@@ -6390,13 +6388,13 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="E298" s="2">
         <v>298</v>
@@ -6404,13 +6402,13 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>516</v>
       </c>
       <c r="E299" s="2">
         <v>299</v>
@@ -6418,13 +6416,13 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C300" s="2" t="s">
         <v>518</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>519</v>
       </c>
       <c r="E300" s="2">
         <v>300</v>
@@ -6432,13 +6430,13 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>521</v>
       </c>
       <c r="E301" s="2">
         <v>301</v>
@@ -6446,13 +6444,13 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="E302" s="2">
         <v>302</v>
@@ -6460,13 +6458,13 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C303" s="2" t="s">
         <v>525</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>526</v>
       </c>
       <c r="E303" s="2">
         <v>303</v>
@@ -6474,13 +6472,13 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>528</v>
       </c>
       <c r="E304" s="2">
         <v>304</v>
@@ -6488,13 +6486,13 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>530</v>
       </c>
       <c r="E305" s="2">
         <v>305</v>
@@ -6502,13 +6500,13 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>532</v>
       </c>
       <c r="E306" s="2">
         <v>306</v>
@@ -6516,13 +6514,13 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="E307" s="2">
         <v>307</v>
@@ -6530,13 +6528,13 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E308" s="2">
         <v>308</v>
@@ -6544,13 +6542,13 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C309" s="2" t="s">
         <v>538</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E309" s="2">
         <v>309</v>
@@ -6558,13 +6556,13 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>541</v>
       </c>
       <c r="E310" s="2">
         <v>310</v>
@@ -6572,13 +6570,13 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="E311" s="2">
         <v>311</v>
@@ -6586,13 +6584,13 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C312" s="2" t="s">
         <v>545</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>546</v>
       </c>
       <c r="E312" s="2">
         <v>312</v>
@@ -6600,13 +6598,13 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="E313" s="2">
         <v>313</v>
@@ -6614,13 +6612,13 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>550</v>
       </c>
       <c r="E314" s="2">
         <v>314</v>
@@ -6628,13 +6626,13 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C315" s="2" t="s">
         <v>552</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="E315" s="2">
         <v>315</v>
@@ -6642,13 +6640,13 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="E316" s="2">
         <v>316</v>
@@ -6656,13 +6654,13 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B317" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>554</v>
+      <c r="C317" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="E317" s="2">
         <v>317</v>
@@ -6670,13 +6668,13 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>558</v>
       </c>
       <c r="E318" s="2">
         <v>318</v>
@@ -6684,13 +6682,13 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="E319" s="2">
         <v>319</v>
@@ -6698,13 +6696,13 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>562</v>
       </c>
       <c r="E320" s="2">
         <v>320</v>
@@ -6712,13 +6710,13 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C321" s="2" t="s">
         <v>564</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="E321" s="2">
         <v>321</v>
@@ -6726,13 +6724,13 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>567</v>
       </c>
       <c r="E322" s="2">
         <v>322</v>
@@ -6740,13 +6738,13 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>569</v>
       </c>
       <c r="E323" s="2">
         <v>323</v>
@@ -6754,13 +6752,13 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>571</v>
       </c>
       <c r="E324" s="2">
         <v>324</v>
@@ -6768,13 +6766,13 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>573</v>
       </c>
       <c r="E325" s="2">
         <v>325</v>
@@ -6782,13 +6780,13 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>575</v>
       </c>
       <c r="E326" s="2">
         <v>326</v>
@@ -6796,12 +6794,12 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="C327" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E327" s="2">
@@ -6810,12 +6808,12 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E328" s="2">
@@ -6824,12 +6822,12 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C329" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E329" s="2">
@@ -6838,12 +6836,12 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C330" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E330" s="2">
@@ -6852,12 +6850,12 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C331" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E331" s="2">
@@ -6866,12 +6864,12 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="C332" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E332" s="2">

--- a/CustomLocalization/Localization/RogueTech/RU/ExperimentalWeapons/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/ExperimentalWeapons/LocalizationDef.xlsx
@@ -2217,15 +2217,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="C337" sqref="C337"/>
+    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="72.140625" customWidth="1" style="2"/>
-    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/CustomLocalization/Localization/RogueTech/RU/ExperimentalWeapons/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/ExperimentalWeapons/LocalizationDef.xlsx
@@ -2217,15 +2217,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="C336" sqref="C336"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="72.140625" customWidth="1" style="2"/>
-    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
-    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="7" width="9.140625" customWidth="1" style="2"/>
+    <col min="8" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/CustomLocalization/Localization/RogueTech/RU/ExperimentalWeapons/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/ExperimentalWeapons/LocalizationDef.xlsx
@@ -187,7 +187,7 @@
   <si>
     <t xml:space="preserve">Argent Leviathan was commissioned by ComStar in 3060 as an exploratory upgrade to existing King Crabs. Largely driven by the logistical problems plaguing ComStar's thinly stretched armies, the KGC-AL prototype would carry eight extended range medium lasers and two large pulse lasers along with functional claws that would enable it to drag large battlefield salvage or even grasp its prey.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_argent_leviathan_KGC-AL.StockRole</t>
@@ -215,7 +215,7 @@
   <si>
     <t xml:space="preserve">Introduced at the turn of the century, the Blood Asp was created by the Smoke Jaguars in anticipation of the Clans' return to the Inner Sphere. This is a Custom configured Blood Asp by the Society to work as a test bed for the Experimental Heavy Silver Bullet Gauss Rifles.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_blood_asp_BAS-S.StockRole</t>
@@ -243,7 +243,7 @@
   <si>
     <t xml:space="preserve">Like An unstoppable Zombie, the mech known as the cauldron born takes the battlefeild striking fear into its opponents. &lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_cauldron_born_EBJ-CB.StockRole</t>
@@ -271,7 +271,7 @@
   <si>
     <t xml:space="preserve">The Clint was first created in 2607 as a direct result of the Star LeagueArmaments Act, a law meant to provide border areas with the latest in battlefield technology. The next version, CLNT-2-3T, was mass produced starting in 2608. The Clint was primarily designed as a cheap recon unit, with the capabilities of a well-armed, low-end medium weight 'Mech, and in this regard it served well. With a top speed of 97.2 km/h and a jumping capability of one hundred and eighty meters, the Clint can easily keep up with other recon elements and maneuver through mountainous or urban terrain. Its Sloan 220 Lockover T&amp;T System in particular shines as it is simple to use and provides the pilot with excellent battlefield data. Although the 'Mech has limited ammunition reserves for its autocannon, the Sloane 220 ensures that whatever the Clintshoots at, it hits.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Variable Range Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_clint_eastwood.StockRole</t>
@@ -296,7 +296,7 @@
   <si>
     <t xml:space="preserve">The Kugelblitz, also known as the Hypernova, Superluminous Supernova, or ''Type 1A Supernova'' is a gigantic Supernova chassis. Nothing really out of the ordinary until one checks the armor plating on it, mounting WarShip class ''Ferro-Carbide Lamellor'', this expensive armor is capable of protecting a mech's internals without issue, but the price to maintain the armor is only something even the richest of Clan Diamond Shark might have an issue.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.38&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.38&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_kugelblitz_SNV-KB.StockRole</t>
@@ -321,7 +321,7 @@
   <si>
     <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). For long range, the Lone Wolf variant was armed with shoulder mounted twin LRM-20 launchers with 24 racks, first half being Swarm LRMs, backed up by a Gauss Rifle in left arm, with 16 slug coming from bins in the left torso. For close combat, the Lone Wolf carries three Medium Pulse Lasers in right arm, a stubby LB-X Autocannon/20 with 10 cluster rounds under-slung on right torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.26&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_lone_wolf_DW-LW.StockRole</t>
@@ -349,7 +349,7 @@
   <si>
     <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). Different from the normal Lone Wolf, this variant has some weird experimental Rotary weapon system. Designed to ''delete'' infantry units.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_lone_wolf_DW-LW-AP.StockRole</t>
@@ -371,7 +371,7 @@
   <si>
     <t xml:space="preserve">This Marauder II was introduced by the Clans for a Mercenary who earned a honoured place among the Warriors.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.3&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.3&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_marauder_MAD-BH-R.StockRole</t>
@@ -399,7 +399,7 @@
   <si>
     <t xml:space="preserve">This Marauder, commonly refered as the MAD-DER, was first seen as a Solaris VII speed boosted refit which boasts of an L.A.M. System incorporated to the very mech's chassis and engine, enabling it to go faster and actually fly in short bursts. Made with that kind of passion for a flying Marauder, the design was quickly stolen and reffited with several disabler weapons. Making it a capable fast heavy support class mech.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.21&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.21&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_marauder_MAD-DER.StockRole</t>
@@ -424,7 +424,7 @@
   <si>
     <t xml:space="preserve">In its primary configuration the Summoner has a basic yet effective arsenal. The primary direct fire weapon is an ER PPC backed up by an LB 10-X Autocannon that can fire both standard and cluster ammunition. For fire support and bombardment, the Summoner has an LRM-15 launcher.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.43&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.43&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_master_summoner.StockRole</t>
@@ -448,8 +448,8 @@
   </si>
   <si>
     <t xml:space="preserve">The origin of this mech is unknown, but all the mech's equipment indicate it's made by the Society. Its codename 'Obsidian Skull' is only known if you have seen this mech before and left alive to continue living.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Melee Actuators&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Приводы для рукопашной&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.26&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_obsidian_skull_AS-IIC-OS.StockRole</t>
@@ -474,7 +474,7 @@
   <si>
     <t xml:space="preserve">The most obscene mech to date, this... abomination has double Rotary Gauss Rifles, theorized previously on the Project Omega TRO , with immense fire power at long range.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.42&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.42&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_raczilla_ii_LVT-RACZII.StockRole</t>
@@ -499,7 +499,7 @@
   <si>
     <t xml:space="preserve">The Raczilla is an attempt at creating the most powerful and supersized mech imaginable. Some think it was accomplished, but it low ammo reserves, and heat produced aren't convincing. But doesn't make it less scary...
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.42&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.42&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_raczilla_LVT-RACZ.StockRole</t>
@@ -524,7 +524,7 @@
   <si>
     <t xml:space="preserve">The maximum expresion of death at a Distance. Has an improved downscaled Railgun affixed on it Center Torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.34&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.34&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_stone_rhino_STRN-R.StockRole</t>
@@ -1539,7 +1539,7 @@
   <si>
     <t xml:space="preserve">Introduced at the turn of the century, the Blood Asp was created by the Smoke Jaguars in anticipation of the Clans' return to the Inner Sphere. A Custom configured Blood Asp by the Society to work as a test bed for the Experimental Heavy Silver Bullet Gauss Rifles
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_cauldron_born_EBJ-CB.Description.Details</t>
@@ -1552,7 +1552,7 @@
   <si>
     <t xml:space="preserve">Like An unstoppable Zombie, the mech known as the cauldron born takes the battlefield striking fear into its opponents.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_clint_eastwood.Description.Details</t>
@@ -1568,7 +1568,7 @@
   <si>
     <t xml:space="preserve">While feared by the Inner Sphere, the Supernova design was born out of necessity in an attempt to address ammunition shortages by changing the original King Crab design to an all-energy loadout. The Boiler is a customized Supernova variant that seeks to re-engineer the Supernova back to the original King Crab loadout using Clan technology, essentially making the Boiler a “King Crab IIC”. It mounts an Ultra AC/20 in each arm supported by a Large Pulse Laser in the right torso and an LRM-15 rack in the left. As it was built upon the frame of the standard Supernova, it retains the jump jets but mounts only seventeen double heat sinks. Like its progenitor, the Boiler lacks field endurance, carrying only two tons of Ultra Autocannon rounds and one ton of LRM reloads.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.38&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.38&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_lone_wolf_DW-LW.Description.Details</t>
@@ -1581,7 +1581,7 @@
   <si>
     <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). For long range, the Lone Wolf variant was armed with shoulder mounted twin LRM-20 launchers with 24 racks, first half being Swarm LRMs, backed up by a Gauss Rifle in left arm, with 16 slug coming from bins in the left torso. For close combat, the Lone Wolf carries three Medium Pulse Lasers in right arm, a stubby LB-X Autocannon/20 with 10 cluster rounds under-slung on right torso. &lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.26&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_lone_wolf_DW-LW-AP.Description.Details</t>
@@ -1594,7 +1594,7 @@
   <si>
     <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). Different from the normal Lone Wolf, this variant has some weird experimental Rotary weapon system. Designed to ''delete'' infantry units. &lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_marauder_MAD-BH-R.Description.Details</t>
@@ -1625,7 +1625,7 @@
   <si>
     <t xml:space="preserve">The maximum expression of death at a Distance. Has an improved downscaled Railgun affixed on it Center Torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.34&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.34&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>Weapon_Autocannon_RAC10_CLAN.Description.Details</t>
@@ -2217,15 +2217,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="C335" sqref="C335"/>
+    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="72.140625" customWidth="1" style="2"/>
-    <col min="4" max="7" width="9.140625" customWidth="1" style="2"/>
-    <col min="8" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="8" width="9.140625" customWidth="1" style="2"/>
+    <col min="9" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
